--- a/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.338</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.57</v>
+        <v>20.546</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.079</v>
+        <v>0.574</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.81</v>
+        <v>18.728</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.971</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.512</v>
+        <v>17.651</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.51735656070707</v>
+        <v>9.877654640499589</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.51735656070707</v>
+        <v>35.71712297581063</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.51735656070707</v>
+        <v>43.05081195037438</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29.51735656070707</v>
+        <v>11.7832448074647</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.51735656070707</v>
+        <v>28.6437135955798</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.51735656070707</v>
+        <v>34.81041030485584</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.51735656070707</v>
+        <v>22.49349305723898</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.51735656070707</v>
+        <v>36.38196618566984</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.51735656070707</v>
+        <v>42.58231642604163</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.51735656070707</v>
+        <v>41.0268077084538</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.51735656070707</v>
+        <v>49.85886878099744</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.51735656070707</v>
+        <v>53.31709417565934</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.51735656070707</v>
+        <v>22.67280661963229</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.51735656070707</v>
+        <v>41.98759484671483</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.51735656070707</v>
+        <v>50.68830543928594</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.51735656070707</v>
+        <v>13.38728087917069</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.51735656070707</v>
+        <v>39.23181320917512</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.51735656070707</v>
+        <v>46.56797577926373</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29.51735656070707</v>
+        <v>15.28528295322643</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.51735656070707</v>
+        <v>32.15056346100208</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.51735656070707</v>
+        <v>38.31949685266191</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29.51735656070707</v>
+        <v>26.0000296740967</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.51735656070707</v>
+        <v>39.89338137806656</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.51735656070707</v>
+        <v>46.09577096883503</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.51735656070707</v>
+        <v>44.54123199280296</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.51735656070707</v>
+        <v>53.37749521267391</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29.51735656070707</v>
+        <v>56.83715908902364</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.51735656070707</v>
+        <v>26.18413966180934</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.51735656070707</v>
+        <v>45.50736526618628</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29.51735656070707</v>
+        <v>54.20894266330923</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.51735656070707</v>
+        <v>21.82426225029097</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.51735656070707</v>
+        <v>47.67088010106305</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.51735656070707</v>
+        <v>55.00853709301531</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>29.51735656070707</v>
+        <v>23.72521806168094</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.51735656070707</v>
+        <v>40.59284216400657</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.51735656070707</v>
+        <v>46.76318485229648</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.51735656070707</v>
+        <v>34.44253588823152</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.51735656070707</v>
+        <v>48.33799207952505</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.51735656070707</v>
+        <v>54.54174922476214</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.51735656070707</v>
+        <v>52.98948802635265</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.51735656070707</v>
+        <v>61.82650035620166</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>29.51735656070707</v>
+        <v>65.2872449643455</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.51735656070707</v>
+        <v>34.62877387375475</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.51735656070707</v>
+        <v>53.95431315496658</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.51735656070707</v>
+        <v>62.65786734582387</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29.51735656070707</v>
+        <v>15.55583380573511</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.51735656070707</v>
+        <v>41.39635933585735</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.51735656070707</v>
+        <v>48.72957716949655</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.51735656070707</v>
+        <v>17.46186500324415</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.51735656070707</v>
+        <v>34.32375169510702</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.51735656070707</v>
+        <v>40.4899355122959</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.51735656070707</v>
+        <v>28.17328508376862</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.51735656070707</v>
+        <v>42.06303702830336</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.51735656070707</v>
+        <v>48.26293248623379</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.51735656070707</v>
+        <v>46.70710435493332</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.51735656070707</v>
+        <v>55.53961086518176</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>29.51735656070707</v>
+        <v>58.99734811789629</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.51735656070707</v>
+        <v>28.35159204570595</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.51735656070707</v>
+        <v>47.66827928433052</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.51735656070707</v>
+        <v>56.36809936524229</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>29.51735656070707</v>
+        <v>19.05894361836078</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.51735656070707</v>
+        <v>44.90453285361717</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.51735656070707</v>
+        <v>52.24022413321994</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.51735656070707</v>
+        <v>20.95738642270043</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.51735656070707</v>
+        <v>37.82408452813853</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.51735656070707</v>
+        <v>43.99250487283869</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.51735656070707</v>
+        <v>31.67330490863479</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.51735656070707</v>
+        <v>45.56793511487886</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.51735656070707</v>
+        <v>51.7698698024768</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.51735656070707</v>
+        <v>50.21501170864916</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.51735656070707</v>
+        <v>59.05172011205387</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>29.51735656070707</v>
+        <v>62.51089579859057</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.51735656070707</v>
+        <v>31.85640861959938</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.51735656070707</v>
+        <v>51.1815327596339</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.51735656070707</v>
+        <v>59.88221959543988</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>29.51735656070707</v>
+        <v>27.49978212690768</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.51735656070707</v>
+        <v>53.34745690174258</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.51735656070707</v>
+        <v>60.68464266162515</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.51735656070707</v>
+        <v>29.40117893878004</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.51735656070707</v>
+        <v>46.27022069685755</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>29.51735656070707</v>
+        <v>52.44005040841101</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.51735656070707</v>
+        <v>40.11966871839489</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.51735656070707</v>
+        <v>54.01640345418603</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>29.51735656070707</v>
+        <v>60.21970577854869</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.51735656070707</v>
+        <v>58.66712523542138</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.51735656070707</v>
+        <v>67.50458278810855</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.51735656070707</v>
+        <v>70.96483916719079</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.51735656070707</v>
+        <v>40.30490013753625</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.51735656070707</v>
+        <v>59.63233802973012</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.51735656070707</v>
+        <v>68.33500165223948</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.51735656070707</v>
+        <v>14.13478912477682</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.51735656070707</v>
+        <v>39.97512167882233</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.51735656070707</v>
+        <v>47.30824384873095</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.51735656070707</v>
+        <v>16.04048012222164</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.51735656070707</v>
+        <v>32.90213062128144</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.51735656070707</v>
+        <v>39.06820851945041</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.51735656070707</v>
+        <v>26.7518573999606</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.51735656070707</v>
+        <v>40.64139313283373</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.51735656070707</v>
+        <v>46.84119466236994</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.51735656070707</v>
+        <v>45.28562298628741</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.51735656070707</v>
+        <v>54.11796749322649</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.51735656070707</v>
+        <v>57.57567461131963</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.51735656070707</v>
+        <v>26.93036249201508</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.51735656070707</v>
+        <v>46.24680443451449</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.51735656070707</v>
+        <v>54.94647645944063</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.51735656070707</v>
+        <v>17.64066693683207</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.51735656070707</v>
+        <v>43.48606328259278</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.51735656070707</v>
+        <v>50.82165890778275</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.51735656070707</v>
+        <v>19.53876972846637</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.51735656070707</v>
+        <v>36.40523172441611</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.51735656070707</v>
+        <v>42.57354617220618</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.51735656070707</v>
+        <v>30.25464550045784</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.51735656070707</v>
+        <v>44.14905956804749</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.51735656070707</v>
+        <v>50.35090034179039</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.51735656070707</v>
+        <v>48.79629848051978</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.51735656070707</v>
+        <v>57.63284486551935</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.51735656070707</v>
+        <v>61.09199043488171</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.51735656070707</v>
+        <v>30.43794710841711</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>29.51735656070707</v>
+        <v>49.76282601737135</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>29.51735656070707</v>
+        <v>58.46336480568469</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.51735656070707</v>
+        <v>26.08149451267353</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.51735656070707</v>
+        <v>51.92897641424894</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.51735656070707</v>
+        <v>59.26606652521626</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>29.51735656070707</v>
+        <v>27.98255128632353</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.51735656070707</v>
+        <v>44.85135695556527</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>29.51735656070707</v>
+        <v>51.02108077141541</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.51735656070707</v>
+        <v>38.70099833871994</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>29.51735656070707</v>
+        <v>52.59751694284806</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>29.51735656070707</v>
+        <v>58.80072536161946</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>29.51735656070707</v>
+        <v>57.24840104575581</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>29.51735656070707</v>
+        <v>66.08569659235137</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>29.51735656070707</v>
+        <v>69.5459228558568</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.51735656070707</v>
+        <v>38.88642764302993</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.51735656070707</v>
+        <v>58.21362032516434</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29.51735656070707</v>
+        <v>66.91613589869824</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>29.51735656070707</v>
+        <v>7.321525300666611</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.51735656070707</v>
+        <v>33.16039370625764</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.51735656070707</v>
+        <v>40.49392760390809</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>29.51735656070707</v>
+        <v>9.226619248731357</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.51735656070707</v>
+        <v>26.08657351379337</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.51735656070707</v>
+        <v>32.2531031449282</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>29.51735656070707</v>
+        <v>19.93651065370692</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.51735656070707</v>
+        <v>33.82451590220658</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.51735656070707</v>
+        <v>40.02468924629351</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.51735656070707</v>
+        <v>38.46914095324267</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.51735656070707</v>
+        <v>47.30100088216771</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.51735656070707</v>
+        <v>50.7591965344195</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.51735656070707</v>
+        <v>20.11583504141025</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.51735656070707</v>
+        <v>39.43007179455991</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>29.51735656070707</v>
+        <v>48.13053994726805</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>29.51735656070707</v>
+        <v>10.8302476406095</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.51735656070707</v>
+        <v>36.6741799310622</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.51735656070707</v>
+        <v>44.01018738144181</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>29.51735656070707</v>
+        <v>12.72775349691016</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.51735656070707</v>
+        <v>29.59251937267105</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.51735656070707</v>
+        <v>35.76128565071848</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.51735656070707</v>
+        <v>23.44214325972859</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.51735656070707</v>
+        <v>37.33502697081495</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.51735656070707</v>
+        <v>43.53723963478784</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.51735656070707</v>
+        <v>41.98266104848345</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29.51735656070707</v>
+        <v>50.81872303920839</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.51735656070707</v>
+        <v>54.27835715451873</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.51735656070707</v>
+        <v>23.62626394937421</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.51735656070707</v>
+        <v>42.94893788711543</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.51735656070707</v>
+        <v>51.65027284285905</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.51735656070707</v>
+        <v>19.26824544098507</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.51735656070707</v>
+        <v>45.11426325970557</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.51735656070707</v>
+        <v>52.45176512160616</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>29.51735656070707</v>
+        <v>21.16870499090702</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.51735656070707</v>
+        <v>38.03581446030988</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.51735656070707</v>
+        <v>44.20599002337723</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.51735656070707</v>
+        <v>31.88566591524249</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>29.51735656070707</v>
+        <v>45.78065411358305</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>29.51735656070707</v>
+        <v>51.98423432200694</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29.51735656070707</v>
+        <v>50.43193339398259</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>29.51735656070707</v>
+        <v>59.26874450397177</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.51735656070707</v>
+        <v>62.7294593409632</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.51735656070707</v>
+        <v>32.07191446390253</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>29.51735656070707</v>
+        <v>51.39690208321598</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>29.51735656070707</v>
+        <v>60.10021380500744</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.51735656070707</v>
+        <v>15.33663500399131</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.51735656070707</v>
+        <v>41.17647299331394</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.51735656070707</v>
+        <v>48.51010496890613</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>29.51735656070707</v>
+        <v>17.24239560141415</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.51735656070707</v>
+        <v>34.1033181119269</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.51735656070707</v>
+        <v>40.26994220683308</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.51735656070707</v>
+        <v>27.95303742539453</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.51735656070707</v>
+        <v>41.84191919134467</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.51735656070707</v>
+        <v>48.04219701787746</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.51735656070707</v>
+        <v>46.48626705636433</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.51735656070707</v>
+        <v>55.3185178464705</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.51735656070707</v>
+        <v>58.77672812532136</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.51735656070707</v>
+        <v>28.13190715055167</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.51735656070707</v>
+        <v>47.44706242077392</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.51735656070707</v>
+        <v>56.14767047234101</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.51735656070707</v>
+        <v>18.84758438788912</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.51735656070707</v>
+        <v>44.69248631819401</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.51735656070707</v>
+        <v>52.02859179015068</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>29.51735656070707</v>
+        <v>20.74575694590725</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.51735656070707</v>
+        <v>37.61149112451129</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.51735656070707</v>
+        <v>43.78035179799063</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.51735656070707</v>
+        <v>31.46089730171694</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.51735656070707</v>
+        <v>45.35465757551059</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>29.51735656070707</v>
+        <v>51.55697465818729</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>29.51735656070707</v>
+        <v>50.00201447819312</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.51735656070707</v>
+        <v>58.83846734280881</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>29.51735656070707</v>
+        <v>62.29811605354176</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.51735656070707</v>
+        <v>31.64456340285516</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>29.51735656070707</v>
+        <v>50.96815595007455</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>29.51735656070707</v>
+        <v>27.28383717237715</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.51735656070707</v>
+        <v>53.13082458061091</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>29.51735656070707</v>
+        <v>60.46842449827612</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.51735656070707</v>
+        <v>29.18496338296369</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>29.51735656070707</v>
+        <v>46.05304111084398</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.51735656070707</v>
+        <v>52.22331110083927</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.51735656070707</v>
+        <v>39.90267482001285</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.51735656070707</v>
+        <v>53.7985395407686</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>29.51735656070707</v>
+        <v>60.00222420673946</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29.51735656070707</v>
+        <v>58.44954177741771</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.51735656070707</v>
+        <v>67.28674375812328</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>29.51735656070707</v>
+        <v>70.74747320105779</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>29.51735656070707</v>
+        <v>40.08846891429231</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.51735656070707</v>
+        <v>59.41437510953197</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>29.51735656070707</v>
+        <v>68.11782671392892</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>29.51735656070707</v>
+        <v>18.54037924601333</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.51735656070707</v>
+        <v>44.37925128756284</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>29.51735656070707</v>
+        <v>51.71190820714138</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.51735656070707</v>
+        <v>20.44654319986136</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.51735656070707</v>
+        <v>37.307456482956</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29.51735656070707</v>
+        <v>43.47318966286365</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.51735656070707</v>
+        <v>31.15722566893963</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.51735656070707</v>
+        <v>45.04615551225378</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>29.51735656070707</v>
+        <v>51.24559994032732</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.51735656070707</v>
+        <v>49.68941806581732</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>29.51735656070707</v>
+        <v>58.52129919460525</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.51735656070707</v>
+        <v>61.97891659504261</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>29.51735656070707</v>
+        <v>31.33516462729994</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.51735656070707</v>
+        <v>50.65020443730462</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>29.51735656070707</v>
+        <v>59.34948906388375</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.51735656070707</v>
+        <v>22.05198156161065</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.51735656070707</v>
+        <v>47.89591710140165</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>29.51735656070707</v>
+        <v>55.23104717546595</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.51735656070707</v>
+        <v>23.95055812605141</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>29.51735656070707</v>
+        <v>40.81628264917593</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.51735656070707</v>
+        <v>46.98425207661136</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.51735656070707</v>
+        <v>34.66573901206765</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.51735656070707</v>
+        <v>48.55954692635736</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>29.51735656070707</v>
+        <v>54.76103030191415</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29.51735656070707</v>
+        <v>53.20581823955762</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>29.51735656070707</v>
+        <v>62.04190100172046</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>29.51735656070707</v>
+        <v>65.50095668422306</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.51735656070707</v>
+        <v>34.84847402493743</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.51735656070707</v>
+        <v>54.17195036615327</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.51735656070707</v>
+        <v>62.87210157513049</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.51735656070707</v>
+        <v>30.48939679919237</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.51735656070707</v>
+        <v>56.33541763628465</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.51735656070707</v>
+        <v>63.67204205077142</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>29.51735656070707</v>
+        <v>32.39092687501521</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>29.51735656070707</v>
+        <v>49.25899477621782</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.51735656070707</v>
+        <v>55.42837342290885</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>29.51735656070707</v>
+        <v>43.1086787342134</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.51735656070707</v>
+        <v>57.00459093264872</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.51735656070707</v>
+        <v>63.20744182239785</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.51735656070707</v>
+        <v>61.6545072861836</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>29.51735656070707</v>
+        <v>70.49133911773423</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>29.51735656070707</v>
+        <v>73.95147537666661</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.51735656070707</v>
+        <v>43.29354145262674</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.51735656070707</v>
+        <v>62.61933128164263</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.51735656070707</v>
+        <v>71.32145912687825</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.51735656070707</v>
+        <v>6.621794820450749</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>29.51735656070707</v>
+        <v>32.45928075406515</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.51735656070707</v>
+        <v>39.79196795194831</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.51735656070707</v>
+        <v>8.527365587977204</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>29.51735656070707</v>
+        <v>25.38676767411492</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.51735656070707</v>
+        <v>31.55254997852534</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.51735656070707</v>
+        <v>19.23692349210249</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>29.51735656070707</v>
+        <v>33.12450668859945</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.51735656070707</v>
+        <v>39.32398793764422</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.51735656070707</v>
+        <v>37.76910853290882</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.51735656070707</v>
+        <v>46.60027038449947</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.51735656070707</v>
+        <v>50.05787837811498</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.51735656070707</v>
+        <v>19.41620213794294</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>29.51735656070707</v>
+        <v>38.72982406619484</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.51735656070707</v>
+        <v>47.42912657467672</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>29.51735656070707</v>
+        <v>10.1320154801732</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.51735656070707</v>
+        <v>35.97456502107933</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.51735656070707</v>
+        <v>43.30972564331897</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.51735656070707</v>
+        <v>12.02999900592703</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.51735656070707</v>
+        <v>28.89421243315677</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>29.51735656070707</v>
+        <v>35.06223128725911</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.51735656070707</v>
+        <v>22.74405514290037</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.51735656070707</v>
+        <v>36.63651653255987</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.51735656070707</v>
+        <v>42.8380370018608</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>29.51735656070707</v>
+        <v>41.28412710751034</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.51735656070707</v>
+        <v>50.11949067698434</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.51735656070707</v>
+        <v>53.57853706885486</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>29.51735656070707</v>
+        <v>22.92812975700382</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.51735656070707</v>
+        <v>42.25018838049697</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.51735656070707</v>
+        <v>50.95035765303849</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.51735656070707</v>
+        <v>18.57145833147694</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.51735656070707</v>
+        <v>44.41609327905654</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>29.51735656070707</v>
+        <v>51.75274817643513</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.51735656070707</v>
+        <v>20.47239551015206</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.51735656070707</v>
+        <v>37.33895242585707</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>29.51735656070707</v>
+        <v>43.50838043640805</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.51735656070707</v>
+        <v>31.18902270620093</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>29.51735656070707</v>
+        <v>45.08358847111741</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>29.51735656070707</v>
+        <v>51.28647637898915</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>29.51735656070707</v>
+        <v>49.73484400609867</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29.51735656070707</v>
+        <v>58.57095664280494</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>29.51735656070707</v>
+        <v>62.03108361363728</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.51735656070707</v>
+        <v>31.37522498808663</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>29.51735656070707</v>
+        <v>50.69959714393688</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.51735656070707</v>
+        <v>59.40174301856437</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.51735656070707</v>
+        <v>3.606668798525778</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.51735656070707</v>
+        <v>29.44609618840126</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.51735656070707</v>
+        <v>36.77975043536217</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.51735656070707</v>
+        <v>5.512035229141123</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>29.51735656070707</v>
+        <v>22.37253670440338</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>29.51735656070707</v>
+        <v>28.53917822246807</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>29.51735656070707</v>
+        <v>16.22198454326587</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.51735656070707</v>
+        <v>30.11047650365957</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.51735656070707</v>
+        <v>36.31078176790503</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.51735656070707</v>
+        <v>34.75535487890237</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>29.51735656070707</v>
+        <v>43.58757798018245</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.51735656070707</v>
+        <v>47.04579514931287</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>29.51735656070707</v>
+        <v>16.40142294023041</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.51735656070707</v>
+        <v>35.71629937838121</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.51735656070707</v>
+        <v>44.41687355302359</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.51735656070707</v>
+        <v>7.114797272921681</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.51735656070707</v>
+        <v>32.95928856618978</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>29.51735656070707</v>
+        <v>40.29541634273458</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>29.51735656070707</v>
+        <v>9.012575542694197</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>29.51735656070707</v>
+        <v>25.87788864052265</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.51735656070707</v>
+        <v>32.04676677054657</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.51735656070707</v>
+        <v>19.72702329335003</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>29.51735656070707</v>
+        <v>33.62039372742798</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.51735656070707</v>
+        <v>39.82273828942128</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.51735656070707</v>
+        <v>38.26828125786231</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.51735656070707</v>
+        <v>47.10470643524819</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>29.51735656070707</v>
+        <v>50.56436205658984</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>29.51735656070707</v>
+        <v>19.91125818558338</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.51735656070707</v>
+        <v>39.23457185021276</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.51735656070707</v>
+        <v>47.93601280440895</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>29.51735656070707</v>
+        <v>15.55245787474654</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.51735656070707</v>
+        <v>41.39903468601413</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>29.51735656070707</v>
+        <v>48.73665694209488</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.51735656070707</v>
+        <v>17.45318991221619</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>29.51735656070707</v>
+        <v>34.32084660537508</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.51735656070707</v>
+        <v>40.49113408901938</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>29.51735656070707</v>
+        <v>28.17020881247378</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.51735656070707</v>
+        <v>42.0656837341031</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>29.51735656070707</v>
+        <v>48.26939590896585</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>29.51735656070707</v>
+        <v>46.71721654466317</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>29.51735656070707</v>
+        <v>55.55439086048692</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>29.51735656070707</v>
+        <v>59.01512723182951</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>29.51735656070707</v>
+        <v>28.3565716154394</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.51735656070707</v>
+        <v>47.68219898298717</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>29.51735656070707</v>
+        <v>56.38561676425012</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.51735656070707</v>
+        <v>20.96259900284871</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>29.51735656070707</v>
+        <v>46.80273843573956</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.51735656070707</v>
+        <v>54.13574178764928</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>29.51735656070707</v>
+        <v>22.86992201282191</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>29.51735656070707</v>
+        <v>39.73176138879886</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.51735656070707</v>
+        <v>45.89782739278824</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.51735656070707</v>
+        <v>33.58131415203478</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.51735656070707</v>
+        <v>47.47104244449643</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.51735656070707</v>
+        <v>53.67082028348567</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.51735656070707</v>
+        <v>52.1150378927117</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.51735656070707</v>
+        <v>60.94724713972208</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>29.51735656070707</v>
+        <v>64.40497044662696</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>29.51735656070707</v>
+        <v>33.7600513496909</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.51735656070707</v>
+        <v>53.07632005295953</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.51735656070707</v>
+        <v>61.77607771599331</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.51735656070707</v>
+        <v>24.46598633492987</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.51735656070707</v>
+        <v>50.31118934866161</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.51735656070707</v>
+        <v>57.6466659571406</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.51735656070707</v>
+        <v>26.36572112634814</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>29.51735656070707</v>
+        <v>43.23237180357647</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.51735656070707</v>
+        <v>49.40067416426028</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.51735656070707</v>
+        <v>37.08161145619032</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>29.51735656070707</v>
+        <v>50.97621792372625</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>29.51735656070707</v>
+        <v>57.17803480650922</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>29.51735656070707</v>
+        <v>55.62322240960428</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.51735656070707</v>
+        <v>64.45963342055016</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.51735656070707</v>
+        <v>67.91879508657529</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>29.51735656070707</v>
+        <v>37.2651451414773</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.51735656070707</v>
+        <v>56.58985058683162</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.51735656070707</v>
+        <v>65.29047480141854</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.51735656070707</v>
+        <v>32.90510148715371</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.51735656070707</v>
+        <v>58.75238990765114</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.51735656070707</v>
+        <v>66.08936093619671</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>29.51735656070707</v>
+        <v>34.80779011380024</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>29.51735656070707</v>
+        <v>51.67678428953705</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.51735656070707</v>
+        <v>57.84649596018811</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>29.51735656070707</v>
+        <v>45.52625157443138</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.51735656070707</v>
+        <v>59.42296242829637</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.51735656070707</v>
+        <v>65.62614690614178</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.51735656070707</v>
+        <v>64.07361212198724</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.51735656070707</v>
+        <v>72.9107722382398</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.51735656070707</v>
+        <v>76.37101452551757</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>29.51735656070707</v>
+        <v>45.71191302019234</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.51735656070707</v>
+        <v>65.03893207080726</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>29.51735656070707</v>
+        <v>73.7415330264722</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>29.51735656070707</v>
+        <v>1.463825373228463</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.51735656070707</v>
+        <v>27.30079791610443</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>29.51735656070707</v>
+        <v>34.63356274439899</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.51735656070707</v>
+        <v>3.368142691440642</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.51735656070707</v>
+        <v>20.2270190334052</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>29.51735656070707</v>
+        <v>26.39286360569814</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>29.51735656070707</v>
+        <v>14.07759592474689</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.51735656070707</v>
+        <v>27.96475474240309</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.51735656070707</v>
+        <v>34.1642988418523</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.51735656070707</v>
+        <v>32.60929460606825</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.51735656070707</v>
+        <v>41.44048354843299</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.51735656070707</v>
+        <v>44.89804694163205</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>29.51735656070707</v>
+        <v>14.25637648758606</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.51735656070707</v>
+        <v>33.56982884513671</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>29.51735656070707</v>
+        <v>42.26909966762797</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>29.51735656070707</v>
+        <v>4.970595354419732</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.51735656070707</v>
+        <v>30.81263134781544</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.51735656070707</v>
+        <v>38.14786964909148</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.51735656070707</v>
+        <v>6.86732525931335</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.51735656070707</v>
+        <v>23.73101279710328</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.51735656070707</v>
+        <v>29.89909393899881</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.51735656070707</v>
+        <v>17.58127666044821</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.51735656070707</v>
+        <v>31.47331351064541</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.51735656070707</v>
+        <v>37.67489689312366</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.51735656070707</v>
+        <v>36.12086233707088</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>29.51735656070707</v>
+        <v>44.95625297167622</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.51735656070707</v>
+        <v>48.41525474652813</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.51735656070707</v>
+        <v>17.7648535028004</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>29.51735656070707</v>
+        <v>37.08674228080598</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.51735656070707</v>
+        <v>45.78687999962879</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.51735656070707</v>
+        <v>13.41082497378646</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>29.51735656070707</v>
+        <v>39.25494638278165</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.51735656070707</v>
+        <v>46.5916789903274</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.51735656070707</v>
+        <v>15.31050867538203</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.51735656070707</v>
+        <v>32.17653971785386</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.51735656070707</v>
+        <v>38.34603005602092</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.51735656070707</v>
+        <v>26.02703113083475</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>29.51735656070707</v>
+        <v>39.92117237331932</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.51735656070707</v>
+        <v>46.12412321536202</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.51735656070707</v>
+        <v>44.57236605192121</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>29.51735656070707</v>
+        <v>53.40850576157332</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>29.51735656070707</v>
+        <v>56.86858817318817</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.51735656070707</v>
+        <v>26.21273555882327</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>29.51735656070707</v>
+        <v>45.53693792419118</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.51735656070707</v>
+        <v>54.23905224191911</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.51735656070707</v>
+        <v>11.84898427724123</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>29.51735656070707</v>
+        <v>37.6881476768318</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.51735656070707</v>
+        <v>45.02096841017611</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.51735656070707</v>
+        <v>13.75387209910331</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.51735656070707</v>
+        <v>30.61466588573829</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.51735656070707</v>
+        <v>36.78045390413796</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.51735656070707</v>
+        <v>24.46462659292284</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>29.51735656070707</v>
+        <v>38.35343237168671</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.51735656070707</v>
+        <v>44.55293956360627</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.51735656070707</v>
+        <v>42.99722836796717</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.51735656070707</v>
+        <v>51.82925663053651</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.51735656070707</v>
+        <v>55.28683906495631</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>29.51735656070707</v>
+        <v>24.64272955744035</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>29.51735656070707</v>
+        <v>43.95815737025224</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.51735656070707</v>
+        <v>52.65740578541327</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>29.51735656070707</v>
+        <v>15.35917369280707</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.51735656070707</v>
+        <v>41.20340075537557</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.51735656070707</v>
+        <v>48.53869486462143</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.51735656070707</v>
+        <v>17.25647387344826</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.51735656070707</v>
+        <v>34.12207904275179</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>29.51735656070707</v>
+        <v>40.29010352975227</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.51735656070707</v>
+        <v>27.9717269271665</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.51735656070707</v>
+        <v>41.86541089626574</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.51735656070707</v>
+        <v>48.06695726743963</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.51735656070707</v>
+        <v>46.51221576068768</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.51735656070707</v>
+        <v>55.34844576612828</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.51735656070707</v>
+        <v>58.80746658999236</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>29.51735656070707</v>
+        <v>28.15462609359746</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>29.51735656070707</v>
+        <v>47.47849060320787</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.51735656070707</v>
+        <v>56.17860580442992</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>29.51735656070707</v>
+        <v>23.79931757854307</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.51735656070707</v>
+        <v>49.64563011957692</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>29.51735656070707</v>
+        <v>56.98241865707585</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>29.51735656070707</v>
+        <v>25.69957154146629</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.51735656070707</v>
+        <v>42.56752029609537</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>29.51735656070707</v>
+        <v>48.73695409085984</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.51735656070707</v>
+        <v>36.41739576745202</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>29.51735656070707</v>
+        <v>50.31318419884438</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.51735656070707</v>
+        <v>56.51609815623816</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>29.51735656070707</v>
+        <v>54.96363407688885</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>29.51735656070707</v>
+        <v>63.80061321474771</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>29.51735656070707</v>
+        <v>67.26071470152873</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.51735656070707</v>
+        <v>36.60242253191289</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.51735656070707</v>
+        <v>55.9286007307462</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.51735656070707</v>
+        <v>64.63069263363001</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>29.51735656070707</v>
+        <v>1.70880693692094</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.51735656070707</v>
+        <v>27.546882460108</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>29.51735656070707</v>
+        <v>34.87966170462037</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>29.51735656070707</v>
+        <v>3.613044720221968</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>29.51735656070707</v>
+        <v>20.47271947795001</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>29.51735656070707</v>
+        <v>26.638474444415</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.51735656070707</v>
+        <v>14.32307088810295</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.51735656070707</v>
+        <v>28.21085561611686</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.51735656070707</v>
+        <v>34.410322133956</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>29.51735656070707</v>
+        <v>32.85513893945948</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.51735656070707</v>
+        <v>41.68670552926186</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.51735656070707</v>
+        <v>45.14422425519795</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.51735656070707</v>
+        <v>14.50174992790754</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.51735656070707</v>
+        <v>33.81603786211188</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.51735656070707</v>
+        <v>42.51522565720425</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.51735656070707</v>
+        <v>5.212417763698557</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>29.51735656070707</v>
+        <v>31.05555682668465</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>29.51735656070707</v>
+        <v>38.39080954480936</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>29.51735656070707</v>
+        <v>7.109067578685643</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>29.51735656070707</v>
+        <v>23.97355358860135</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.51735656070707</v>
+        <v>30.14154513739503</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>29.51735656070707</v>
+        <v>17.82359192647845</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.51735656070707</v>
+        <v>31.71625474682195</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.51735656070707</v>
+        <v>37.91776054757132</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.51735656070707</v>
+        <v>36.36354716022844</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.51735656070707</v>
+        <v>45.19931549649117</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>29.51735656070707</v>
+        <v>48.65827266637881</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.51735656070707</v>
+        <v>18.00706743331067</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.51735656070707</v>
+        <v>37.32979195680569</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.51735656070707</v>
+        <v>46.02984661487947</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.51735656070707</v>
+        <v>13.65585778474291</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>29.51735656070707</v>
+        <v>39.50108241096426</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.51735656070707</v>
+        <v>46.83782949962277</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.51735656070707</v>
+        <v>15.55546151023553</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.51735656070707</v>
+        <v>32.42229118080353</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.51735656070707</v>
+        <v>38.59169198350104</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>29.51735656070707</v>
+        <v>26.27255723829795</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.51735656070707</v>
+        <v>40.16732459458454</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>29.51735656070707</v>
+        <v>46.37019792355282</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>29.51735656070707</v>
+        <v>44.81826187389832</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.51735656070707</v>
+        <v>53.65477933833755</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>29.51735656070707</v>
+        <v>57.11481714555383</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.51735656070707</v>
+        <v>26.45816015426066</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.51735656070707</v>
+        <v>45.78319842051177</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>29.51735656070707</v>
+        <v>54.48522973416821</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.51735656070707</v>
+        <v>-4.365998406729442</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.51735656070707</v>
+        <v>21.47073112829979</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.51735656070707</v>
+        <v>28.80312821204221</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.51735656070707</v>
+        <v>-2.462422028322077</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>29.51735656070707</v>
+        <v>14.39621394840627</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>29.51735656070707</v>
+        <v>20.56160642891881</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.51735656070707</v>
+        <v>8.246639888078665</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>29.51735656070707</v>
+        <v>22.13351737870788</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.51735656070707</v>
+        <v>28.33261453623787</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.51735656070707</v>
+        <v>26.77758391347833</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.51735656070707</v>
+        <v>35.60875819738179</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.51735656070707</v>
+        <v>39.06617350818259</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.51735656070707</v>
+        <v>8.425369601223554</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.51735656070707</v>
+        <v>27.73848270166262</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.51735656070707</v>
+        <v>36.43721834035033</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.51735656070707</v>
+        <v>-0.86059359797515</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.51735656070707</v>
+        <v>24.98119930103427</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.51735656070707</v>
+        <v>32.31606976850911</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.51735656070707</v>
+        <v>1.035395210699892</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.51735656070707</v>
+        <v>17.89884227346703</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>29.51735656070707</v>
+        <v>24.06647125288781</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.51735656070707</v>
+        <v>11.74895525300734</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.51735656070707</v>
+        <v>25.64071065346512</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.51735656070707</v>
+        <v>31.84184702352933</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.51735656070707</v>
+        <v>30.28778611361234</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.51735656070707</v>
+        <v>39.12316198422364</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.51735656070707</v>
+        <v>42.58201568237915</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.51735656070707</v>
+        <v>11.93248113564254</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.51735656070707</v>
+        <v>31.25403049297096</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.51735656070707</v>
+        <v>39.95363298420533</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.51735656070707</v>
+        <v>7.582708672961292</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.51735656070707</v>
+        <v>33.42658707141162</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.51735656070707</v>
+        <v>40.76295187246716</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.51735656070707</v>
+        <v>9.481651234065101</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.51735656070707</v>
+        <v>26.34744188478486</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>29.51735656070707</v>
+        <v>32.51648008315952</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.51735656070707</v>
+        <v>20.19778257313634</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.51735656070707</v>
+        <v>34.09164244447173</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.51735656070707</v>
+        <v>40.29414630368227</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>29.51735656070707</v>
+        <v>38.74236257150652</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.51735656070707</v>
+        <v>47.57848755370001</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.51735656070707</v>
+        <v>51.03842186136227</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.51735656070707</v>
+        <v>20.38343574406393</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.51735656070707</v>
+        <v>39.70729877544919</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.51735656070707</v>
+        <v>48.40887784866014</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>29.51735656070707</v>
+        <v>8.416011646128016</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.51735656070707</v>
+        <v>34.25535531528816</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.51735656070707</v>
+        <v>41.58903585892959</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.51735656070707</v>
+        <v>10.32103471901847</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.51735656070707</v>
+        <v>27.18137279463814</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.51735656070707</v>
+        <v>33.34804987677784</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.51735656070707</v>
+        <v>21.03140177765032</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.51735656070707</v>
+        <v>34.91976063924061</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.51735656070707</v>
+        <v>41.12010375893657</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.51735656070707</v>
+        <v>39.56457530584565</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.51735656070707</v>
+        <v>48.39656378066842</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.51735656070707</v>
+        <v>51.85473763291633</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.51735656070707</v>
+        <v>21.21068667395899</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.51735656070707</v>
+        <v>40.52539961365333</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.51735656070707</v>
+        <v>49.22603782031159</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.51735656070707</v>
+        <v>11.92227384521935</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.51735656070707</v>
+        <v>37.76668141748472</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.51735656070707</v>
+        <v>45.10283552016129</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.51735656070707</v>
+        <v>13.81970857464863</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.51735656070707</v>
+        <v>30.68485827283631</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.51735656070707</v>
+        <v>36.85377200229276</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.51735656070707</v>
+        <v>24.53457394629583</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.51735656070707</v>
+        <v>38.42781129169849</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.51735656070707</v>
+        <v>44.63019373074097</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.51735656070707</v>
+        <v>43.07563511032093</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.51735656070707</v>
+        <v>51.91182567646352</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.51735656070707</v>
+        <v>55.37143799954775</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.51735656070707</v>
+        <v>24.71865538630572</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.51735656070707</v>
+        <v>44.04180556931702</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.51735656070707</v>
+        <v>52.74331056860579</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.51735656070707</v>
+        <v>20.36088812354796</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.51735656070707</v>
+        <v>46.20738126418699</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.51735656070707</v>
+        <v>53.54502980046458</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.51735656070707</v>
+        <v>22.26127668540765</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.51735656070707</v>
+        <v>39.12877002875972</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.51735656070707</v>
+        <v>45.29909306483385</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.51735656070707</v>
+        <v>32.9787132735281</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.51735656070707</v>
+        <v>46.87405514839894</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.51735656070707</v>
+        <v>53.07780515575813</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.51735656070707</v>
+        <v>51.52552423530913</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.51735656070707</v>
+        <v>60.36246393420707</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>29.51735656070707</v>
+        <v>63.82315698655621</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.51735656070707</v>
+        <v>33.16492258906372</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.51735656070707</v>
+        <v>52.4903865066036</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.51735656070707</v>
+        <v>61.19386830344079</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.51735656070707</v>
+        <v>12.70622167885596</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29.51735656070707</v>
+        <v>38.54515229746606</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.51735656070707</v>
+        <v>45.8781372050165</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.51735656070707</v>
+        <v>14.61129980270947</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.51735656070707</v>
+        <v>31.47187430882217</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.51735656070707</v>
+        <v>37.63784596261131</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.51735656070707</v>
+        <v>25.32202217048188</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>29.51735656070707</v>
+        <v>39.21066225635569</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.51735656070707</v>
+        <v>45.41034448579693</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.51735656070707</v>
+        <v>43.85471271335597</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.51735656070707</v>
+        <v>52.68673207953417</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.51735656070707</v>
+        <v>56.14431634153821</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.51735656070707</v>
+        <v>25.50032508479272</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.51735656070707</v>
+        <v>44.81570855340816</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.51735656070707</v>
+        <v>53.51517741890574</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.51735656070707</v>
+        <v>16.20902328427268</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.51735656070707</v>
+        <v>42.05301742113669</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.51735656070707</v>
+        <v>49.38847577716864</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>29.51735656070707</v>
+        <v>18.10651339740763</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.51735656070707</v>
+        <v>34.97189913901126</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.51735656070707</v>
+        <v>41.14010733227086</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.51735656070707</v>
+        <v>28.82173395076619</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.51735656070707</v>
+        <v>42.71525210516869</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.51735656070707</v>
+        <v>48.91697358914267</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.51735656070707</v>
+        <v>47.36231173699285</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.51735656070707</v>
+        <v>56.19853283803319</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.51735656070707</v>
+        <v>59.6575555094813</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.51735656070707</v>
+        <v>29.00483343730797</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>29.51735656070707</v>
+        <v>48.32865346096069</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.51735656070707</v>
+        <v>57.02898916518369</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>29.51735656070707</v>
+        <v>24.64970517585811</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.51735656070707</v>
+        <v>50.49578480710623</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.51735656070707</v>
+        <v>57.83273757792641</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.51735656070707</v>
+        <v>26.55014920370762</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>29.51735656070707</v>
+        <v>43.41787854832886</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.51735656070707</v>
+        <v>49.58749604048545</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.51735656070707</v>
+        <v>37.26794096047227</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.51735656070707</v>
+        <v>51.16356359698146</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.51735656070707</v>
+        <v>57.36665264698773</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>29.51735656070707</v>
+        <v>55.81426823120067</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>29.51735656070707</v>
+        <v>64.65123846780067</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>29.51735656070707</v>
+        <v>68.11134182353929</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.51735656070707</v>
+        <v>37.45316807228629</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>29.51735656070707</v>
+        <v>56.77930179343478</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.51735656070707</v>
+        <v>65.48161419424854</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>29.51735656070707</v>
+        <v>16.86247585759996</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.51735656070707</v>
+        <v>42.70340204434227</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.51735656070707</v>
+        <v>50.03725631226699</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.51735656070707</v>
+        <v>18.76895074720175</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.51735656070707</v>
+        <v>35.63074705212351</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.51735656070707</v>
+        <v>41.79759412686222</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.51735656070707</v>
+        <v>29.48013852144424</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.51735656070707</v>
+        <v>43.36978194712275</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>29.51735656070707</v>
+        <v>49.57028666365976</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.51735656070707</v>
+        <v>48.014381364752</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.51735656070707</v>
+        <v>56.84698684154465</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>29.51735656070707</v>
+        <v>60.30526408499621</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.51735656070707</v>
+        <v>29.65918946615101</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.51735656070707</v>
+        <v>48.97544803405525</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.51735656070707</v>
+        <v>57.67635207206489</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>29.51735656070707</v>
+        <v>20.36970090901888</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>29.51735656070707</v>
+        <v>46.21569112135954</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>29.51735656070707</v>
+        <v>53.55201893595334</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.51735656070707</v>
+        <v>22.26858728601552</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.51735656070707</v>
+        <v>39.13519533249767</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.51735656070707</v>
+        <v>45.30427903097164</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.51735656070707</v>
+        <v>32.98427357587478</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.51735656070707</v>
+        <v>46.87879560888801</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.51735656070707</v>
+        <v>53.08133961792133</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.51735656070707</v>
+        <v>51.52640424243656</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.51735656070707</v>
+        <v>60.36321190410273</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.51735656070707</v>
+        <v>63.82292762445967</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>29.51735656070707</v>
+        <v>33.16812116117704</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.51735656070707</v>
+        <v>52.49281719661552</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.51735656070707</v>
+        <v>61.1945879588511</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>29.51735656070707</v>
+        <v>28.80678070461635</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.51735656070707</v>
+        <v>54.65485645457908</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.51735656070707</v>
+        <v>61.99267875707925</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.51735656070707</v>
+        <v>30.70862092390381</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>29.51735656070707</v>
+        <v>47.57757259088486</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.51735656070707</v>
+        <v>53.74806565466655</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>29.51735656070707</v>
+        <v>41.42687837844652</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.51735656070707</v>
+        <v>55.32350492126282</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.51735656070707</v>
+        <v>61.52741655804139</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>29.51735656070707</v>
+        <v>59.97475901807148</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>29.51735656070707</v>
+        <v>68.81231581283019</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>29.51735656070707</v>
+        <v>72.27311227962922</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>29.51735656070707</v>
+        <v>41.61285400964083</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.51735656070707</v>
+        <v>60.93986376464044</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.51735656070707</v>
+        <v>69.64361138954142</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>29.51735656070707</v>
+        <v>13.38547298155503</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>29.51735656070707</v>
+        <v>39.22459118656751</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.51735656070707</v>
+        <v>46.55829319212852</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.51735656070707</v>
+        <v>15.29156095231143</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.51735656070707</v>
+        <v>32.15179080420113</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.51735656070707</v>
+        <v>38.3185266075544</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.51735656070707</v>
+        <v>26.00155188286896</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.51735656070707</v>
+        <v>39.88984466449823</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>29.51735656070707</v>
+        <v>46.09021425924549</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.51735656070707</v>
+        <v>44.53436834686578</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.51735656070707</v>
+        <v>53.36634054306136</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.51735656070707</v>
+        <v>56.8246095647538</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.51735656070707</v>
+        <v>26.18063535542591</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.51735656070707</v>
+        <v>45.49514891310535</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.51735656070707</v>
+        <v>54.19588499223322</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.51735656070707</v>
+        <v>16.89417336782298</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.51735656070707</v>
+        <v>42.73835541881589</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.51735656070707</v>
+        <v>50.07453094051913</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.51735656070707</v>
+        <v>18.79267336312488</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.51735656070707</v>
+        <v>35.65771478887847</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.51735656070707</v>
+        <v>41.82668719888805</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.51735656070707</v>
+        <v>29.50716257017642</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.51735656070707</v>
+        <v>43.40033377814505</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.51735656070707</v>
+        <v>49.60274265319138</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.51735656070707</v>
+        <v>48.04786649010553</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.51735656070707</v>
+        <v>56.88404070802584</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.51735656070707</v>
+        <v>60.34374815994862</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.51735656070707</v>
+        <v>29.69104235841609</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.51735656070707</v>
+        <v>49.01399307707082</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.51735656070707</v>
+        <v>57.71559590588014</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.51735656070707</v>
+        <v>25.33065466705624</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.51735656070707</v>
+        <v>51.17692218921955</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.51735656070707</v>
+        <v>58.51459212230826</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.51735656070707</v>
+        <v>27.2321083509156</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.51735656070707</v>
+        <v>44.09949331292545</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.51735656070707</v>
+        <v>50.26987500563108</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.51735656070707</v>
+        <v>37.94916861574221</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.51735656070707</v>
+        <v>51.84444426179333</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.51735656070707</v>
+        <v>58.04822067985127</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.51735656070707</v>
+        <v>56.49562225411556</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.51735656070707</v>
+        <v>65.33254558363818</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.51735656070707</v>
+        <v>68.79333376969861</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.51735656070707</v>
+        <v>38.1351763647916</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.51735656070707</v>
+        <v>57.46044071147104</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.51735656070707</v>
+        <v>66.1640203226476</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.51735656070707</v>
+        <v>11.77819540680024</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.51735656070707</v>
+        <v>37.61863396836019</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.51735656070707</v>
+        <v>44.95218564888147</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.51735656070707</v>
+        <v>13.68346953914032</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.51735656070707</v>
+        <v>30.54496456101321</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.51735656070707</v>
+        <v>36.71148345039909</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.51735656070707</v>
+        <v>24.39473358686131</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.51735656070707</v>
+        <v>38.28415426567891</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.51735656070707</v>
+        <v>44.48438708424361</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.51735656070707</v>
+        <v>42.92874834573057</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.51735656070707</v>
+        <v>51.76123246774135</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.51735656070707</v>
+        <v>55.21915641884674</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.51735656070707</v>
+        <v>24.57325471582759</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.51735656070707</v>
+        <v>43.88964123786148</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.51735656070707</v>
+        <v>52.58991834797415</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.51735656070707</v>
+        <v>15.28284633616009</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.51735656070707</v>
+        <v>41.12834876288763</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.51735656070707</v>
+        <v>48.46437399032742</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.51735656070707</v>
+        <v>17.18053203062367</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.51735656070707</v>
+        <v>34.04683863613091</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.51735656070707</v>
+        <v>40.2155941482731</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.51735656070707</v>
+        <v>27.89629451612733</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.51735656070707</v>
+        <v>41.79059362271015</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.51735656070707</v>
+        <v>47.99286576136784</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.51735656070707</v>
+        <v>46.43819695453406</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.51735656070707</v>
+        <v>55.2748830984825</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.51735656070707</v>
+        <v>58.73424549618265</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.51735656070707</v>
+        <v>28.07961243555768</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.51735656070707</v>
+        <v>47.40443607744679</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.51735656070707</v>
+        <v>56.10558002806998</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.51735656070707</v>
+        <v>23.72201319635188</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.51735656070707</v>
+        <v>49.5696011869229</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.51735656070707</v>
+        <v>56.90712091467161</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>29.51735656070707</v>
+        <v>25.6226528975959</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.51735656070707</v>
+        <v>42.49130318092419</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.51735656070707</v>
+        <v>48.66146807211429</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>29.51735656070707</v>
+        <v>36.34098659504444</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.51735656070707</v>
+        <v>50.23739024460529</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.51735656070707</v>
+        <v>56.44103003274971</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.51735656070707</v>
+        <v>54.88863887256421</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.51735656070707</v>
+        <v>63.72607418827543</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.51735656070707</v>
+        <v>67.18651734327976</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.51735656070707</v>
+        <v>36.52643238882546</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>29.51735656070707</v>
+        <v>55.85356981945073</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.51735656070707</v>
+        <v>64.55669058450438</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.51735656070707</v>
+        <v>5.446677453842756</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.51735656070707</v>
+        <v>31.28441975718885</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.51735656070707</v>
+        <v>38.61754902331289</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.51735656070707</v>
+        <v>7.351749312345067</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.51735656070707</v>
+        <v>24.21107372106995</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.51735656070707</v>
+        <v>30.37723384125876</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.51735656070707</v>
+        <v>18.06117427362857</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.51735656070707</v>
+        <v>31.94867591926435</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.51735656070707</v>
+        <v>38.14852984991192</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.51735656070707</v>
+        <v>36.59329789611967</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.51735656070707</v>
+        <v>45.42471462293859</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.51735656070707</v>
+        <v>48.88265163552249</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.51735656070707</v>
+        <v>18.24018012656665</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.51735656070707</v>
+        <v>37.55373337305501</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.51735656070707</v>
+        <v>46.25375736354384</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.51735656070707</v>
+        <v>8.956173051520171</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.51735656070707</v>
+        <v>34.7989791017079</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.51735656070707</v>
+        <v>42.13458184674651</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.51735656070707</v>
+        <v>10.85365746649437</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.51735656070707</v>
+        <v>27.71779336684766</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.51735656070707</v>
+        <v>33.88619007240139</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.51735656070707</v>
+        <v>21.56758060897413</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.51735656070707</v>
+        <v>35.45996058254399</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.51735656070707</v>
+        <v>41.66185378711656</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.51735656070707</v>
+        <v>40.10759149818806</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.51735656070707</v>
+        <v>48.94321011601811</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.51735656070707</v>
+        <v>52.40258558846038</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.51735656070707</v>
+        <v>21.75138270974729</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>29.51735656070707</v>
+        <v>41.07337286700907</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.51735656070707</v>
+        <v>49.77426369901785</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.51735656070707</v>
+        <v>17.39331867883503</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.51735656070707</v>
+        <v>43.23821014821907</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.51735656070707</v>
+        <v>50.57530722406669</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.51735656070707</v>
+        <v>19.29375662412916</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.51735656070707</v>
+        <v>36.1602360105977</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.51735656070707</v>
+        <v>42.33004192651843</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.51735656070707</v>
+        <v>30.01025076095651</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>29.51735656070707</v>
+        <v>43.90473512379832</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.51735656070707</v>
+        <v>50.10799579533169</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>29.51735656070707</v>
+        <v>48.55601107505764</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.51735656070707</v>
+        <v>57.39237875591583</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>29.51735656070707</v>
+        <v>60.85283487678349</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.51735656070707</v>
+        <v>30.19618063870006</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.51735656070707</v>
+        <v>49.52048436133371</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.51735656070707</v>
+        <v>58.22335186281587</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>29.51735656070707</v>
+        <v>11.38444795694669</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.51735656070707</v>
+        <v>37.22334400306418</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.51735656070707</v>
+        <v>44.55704510212068</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.51735656070707</v>
+        <v>13.29036453442767</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.51735656070707</v>
+        <v>30.15039288981938</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.51735656070707</v>
+        <v>36.31713496400936</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.51735656070707</v>
+        <v>24.00021688999287</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.51735656070707</v>
+        <v>37.88833428634062</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.51735656070707</v>
+        <v>44.08870508992764</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.51735656070707</v>
+        <v>42.53299410757403</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.51735656070707</v>
+        <v>51.36488046869145</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.51735656070707</v>
+        <v>54.82315926599584</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.51735656070707</v>
+        <v>24.17945009376819</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.51735656070707</v>
+        <v>43.49376376274641</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>29.51735656070707</v>
+        <v>52.19449301753501</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.51735656070707</v>
+        <v>14.89283993077457</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.51735656070707</v>
+        <v>40.73679981174233</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.51735656070707</v>
+        <v>48.07297444879781</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.51735656070707</v>
+        <v>16.79116855775839</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.51735656070707</v>
+        <v>33.65600847833569</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>29.51735656070707</v>
+        <v>39.8249871835577</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.51735656070707</v>
+        <v>27.50551915235723</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>29.51735656070707</v>
+        <v>41.39851496723064</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.51735656070707</v>
+        <v>47.60092507424416</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.51735656070707</v>
+        <v>46.04618382048044</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.51735656070707</v>
+        <v>54.88227220298766</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.51735656070707</v>
+        <v>58.34198943742182</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.51735656070707</v>
+        <v>27.68954866914941</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.51735656070707</v>
+        <v>47.01229948435581</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.51735656070707</v>
+        <v>55.71389551337573</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.51735656070707</v>
+        <v>23.32944570107212</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.51735656070707</v>
+        <v>49.17549105179295</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.51735656070707</v>
+        <v>56.5131600881807</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.51735656070707</v>
+        <v>25.2307280093812</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.51735656070707</v>
+        <v>42.09791146262693</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.51735656070707</v>
+        <v>48.26829943913968</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.51735656070707</v>
+        <v>35.94764966476826</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.51735656070707</v>
+        <v>49.84274991476092</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.51735656070707</v>
+        <v>56.04652755191363</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>29.51735656070707</v>
+        <v>54.49406402866576</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.51735656070707</v>
+        <v>63.33090151453494</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.51735656070707</v>
+        <v>66.79169947938941</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>29.51735656070707</v>
+        <v>36.13380713200876</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>29.51735656070707</v>
+        <v>55.45887156551872</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>29.51735656070707</v>
+        <v>64.16244436789508</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>29.51735656070707</v>
+        <v>16.60791817590222</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>29.51735656070707</v>
+        <v>42.4469650312394</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>29.51735656070707</v>
+        <v>49.78011644288823</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>29.51735656070707</v>
+        <v>18.5141952740331</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>29.51735656070707</v>
+        <v>35.37476092779455</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>29.51735656070707</v>
+        <v>41.54095606516954</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>29.51735656070707</v>
+        <v>29.22475877462363</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>29.51735656070707</v>
+        <v>43.11333888313071</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>29.51735656070707</v>
+        <v>49.31322889056604</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>29.51735656070707</v>
+        <v>47.75761160816704</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>29.51735656070707</v>
+        <v>56.58937552867256</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>29.51735656070707</v>
+        <v>60.04718841920668</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>29.51735656070707</v>
+        <v>29.40372219744289</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>29.51735656070707</v>
+        <v>48.71859226438276</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>29.51735656070707</v>
+        <v>57.41860639644084</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>29.51735656070707</v>
+        <v>20.11355656111401</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>29.51735656070707</v>
+        <v>45.95766707311883</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>29.51735656070707</v>
+        <v>53.29329186515746</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>29.51735656070707</v>
+        <v>22.01224559248884</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>29.51735656070707</v>
+        <v>38.8776226237221</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>29.51735656070707</v>
+        <v>45.04605425057763</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>29.51735656070707</v>
+        <v>32.72730728957468</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>29.51735656070707</v>
+        <v>46.62076563886033</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>29.51735656070707</v>
+        <v>52.8226948178759</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>29.51735656070707</v>
+        <v>51.26804740441672</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>29.51735656070707</v>
+        <v>60.10401311605152</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>29.51735656070707</v>
+        <v>63.56326440937299</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>29.51735656070707</v>
+        <v>32.91106709138761</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>29.51735656070707</v>
+        <v>52.23437401509476</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>29.51735656070707</v>
+        <v>60.93525478089269</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>29.51735656070707</v>
+        <v>28.55135258097924</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>29.51735656070707</v>
+        <v>54.39754852093243</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>29.51735656070707</v>
+        <v>61.73466769214632</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>29.51735656070707</v>
+        <v>30.45299535352409</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>29.51735656070707</v>
+        <v>47.32071589616156</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>29.51735656070707</v>
+        <v>53.49055677910131</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>29.51735656070707</v>
+        <v>41.17062811115578</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>29.51735656070707</v>
+        <v>55.06619086509225</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>29.51735656070707</v>
+        <v>61.26948757307115</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>29.51735656070707</v>
+        <v>59.71711781310067</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>29.51735656070707</v>
+        <v>68.55383265995782</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>29.51735656070707</v>
+        <v>72.01416461145969</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>29.51735656070707</v>
+        <v>41.35651573550966</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>29.51735656070707</v>
+        <v>60.68213626973032</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>29.51735656070707</v>
+        <v>69.38499375934246</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>29.51735656070707</v>
+        <v>12.62026807699907</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>29.51735656070707</v>
+        <v>38.46063642167768</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>29.51735656070707</v>
+        <v>45.79416409247015</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>29.51735656070707</v>
+        <v>14.52565993074721</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>29.51735656070707</v>
+        <v>31.38714438472015</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>29.51735656070707</v>
+        <v>37.55364233485328</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>29.51735656070707</v>
+        <v>25.23687490790927</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>29.51735656070707</v>
+        <v>39.12629636070606</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>29.51735656070707</v>
+        <v>45.32651237551919</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>29.51735656070707</v>
+        <v>43.77088518187178</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>29.51735656070707</v>
+        <v>52.60331358765505</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>29.51735656070707</v>
+        <v>56.06126185071649</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>29.51735656070707</v>
+        <v>25.41544160467878</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>29.51735656070707</v>
+        <v>44.73178363246244</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>29.51735656070707</v>
+        <v>53.43205142324221</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>29.51735656070707</v>
+        <v>16.12524716152346</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>29.51735656070707</v>
+        <v>41.9706793554053</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>29.51735656070707</v>
+        <v>49.306680560819</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>29.51735656070707</v>
+        <v>18.02305064281687</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>29.51735656070707</v>
+        <v>34.8893466648726</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>29.51735656070707</v>
+        <v>41.05808122949178</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>29.51735656070707</v>
+        <v>28.73876403665189</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>29.51735656070707</v>
+        <v>42.6330639029495</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>29.51735656070707</v>
+        <v>48.83531922672294</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>29.51735656070707</v>
+        <v>47.28066194694814</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>29.51735656070707</v>
+        <v>56.11729235102869</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>29.51735656070707</v>
+        <v>59.57667905072411</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>29.51735656070707</v>
+        <v>28.92212748335793</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>29.51735656070707</v>
+        <v>48.24690662210195</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>29.51735656070707</v>
+        <v>56.94804122865831</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>29.51735656070707</v>
+        <v>24.56366238796828</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>29.51735656070707</v>
+        <v>50.41118011495472</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>29.51735656070707</v>
+        <v>57.74867581419436</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>29.51735656070707</v>
+        <v>26.46441980256281</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>29.51735656070707</v>
+        <v>43.33305946877054</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>29.51735656070707</v>
+        <v>49.50320340648135</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>29.51735656070707</v>
+        <v>37.18270435876148</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>29.51735656070707</v>
+        <v>51.07910873817001</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>29.51735656070707</v>
+        <v>57.28273170365001</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>29.51735656070707</v>
+        <v>55.73035207401971</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>29.51735656070707</v>
+        <v>64.56773164013133</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>29.51735656070707</v>
+        <v>68.0281990999225</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>29.51735656070707</v>
+        <v>37.36819569634996</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>29.51735656070707</v>
+        <v>56.69528857629665</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>29.51735656070707</v>
+        <v>65.39840000755349</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9.877654640499589</v>
+        <v>9.877654640455365</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>35.71712297581063</v>
+        <v>35.71712297582052</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>43.05081195037438</v>
+        <v>43.05081195038757</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>11.7832448074647</v>
+        <v>11.78324480748983</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.6437135955798</v>
+        <v>28.6437135955773</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>34.81041030485584</v>
+        <v>34.81041030490893</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>22.49349305723898</v>
+        <v>22.4934930572549</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>36.38196618566984</v>
+        <v>36.3819661856778</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>42.58231642604163</v>
+        <v>42.58231642605459</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>41.0268077084538</v>
+        <v>41.0268077084696</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>49.85886878099744</v>
+        <v>49.85886878099107</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>53.31709417565934</v>
+        <v>53.31709417563125</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>22.67280661963229</v>
+        <v>22.67280661963581</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>41.98759484671483</v>
+        <v>41.98759484674086</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>50.68830543928594</v>
+        <v>50.68830543930186</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.38728087917069</v>
+        <v>13.38728087914557</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>39.23181320917512</v>
+        <v>39.23181320916034</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>46.56797577926373</v>
+        <v>46.56797577922087</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>15.28528295322643</v>
+        <v>15.28528295325713</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>32.15056346100208</v>
+        <v>32.15056346102368</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>38.31949685266191</v>
+        <v>38.31949685268044</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>26.0000296740967</v>
+        <v>26.00002967409567</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>39.89338137806656</v>
+        <v>39.89338137804121</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>46.09577096883503</v>
+        <v>46.0957709688489</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>44.54123199280296</v>
+        <v>44.54123199278398</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>53.37749521267391</v>
+        <v>53.37749521264548</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>56.83715908902364</v>
+        <v>56.83715908900079</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.18413966180934</v>
+        <v>26.184139661858</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>45.50736526618628</v>
+        <v>45.50736526620925</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>54.20894266330923</v>
+        <v>54.20894266329707</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>21.82426225029097</v>
+        <v>21.82426225026642</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>47.67088010106305</v>
+        <v>47.67088010104429</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>55.00853709301531</v>
+        <v>55.00853709298234</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>23.72521806168094</v>
+        <v>23.72521806170288</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40.59284216400657</v>
+        <v>40.59284216403158</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>46.76318485229648</v>
+        <v>46.7631848522892</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>34.44253588823152</v>
+        <v>34.44253588817888</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>48.33799207952505</v>
+        <v>48.33799207951232</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>54.54174922476214</v>
+        <v>54.54174922475259</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>52.98948802635265</v>
+        <v>52.98948802634412</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>61.82650035620166</v>
+        <v>61.82650035616028</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>65.2872449643455</v>
+        <v>65.28724496435323</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>34.62877387375475</v>
+        <v>34.62877387372951</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>53.95431315496658</v>
+        <v>53.95431315492691</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>62.65786734582387</v>
+        <v>62.65786734578658</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>15.55583380573511</v>
+        <v>15.55583380571351</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>41.39635933585735</v>
+        <v>41.39635933581393</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>48.72957716949655</v>
+        <v>48.72957716941924</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>17.46186500324415</v>
+        <v>17.46186500330917</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>34.32375169510702</v>
+        <v>34.32375169517682</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>40.4899355122959</v>
+        <v>40.48993551230681</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>28.17328508376862</v>
+        <v>28.17328508376919</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>42.06303702830336</v>
+        <v>42.06303702826266</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>48.26293248623379</v>
+        <v>48.26293248615706</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>46.70710435493332</v>
+        <v>46.70710435486249</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>55.53961086518176</v>
+        <v>55.53961086509911</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>58.99734811789629</v>
+        <v>58.9973481178797</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>28.35159204570595</v>
+        <v>28.3515920457097</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>47.66827928433052</v>
+        <v>47.66827928432473</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>56.36809936524229</v>
+        <v>56.36809936525934</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>19.05894361836078</v>
+        <v>19.05894361840614</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>44.90453285361717</v>
+        <v>44.90453285358738</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>52.24022413321994</v>
+        <v>52.24022413314934</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>20.95738642270043</v>
+        <v>20.95738642268326</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>37.82408452813853</v>
+        <v>37.82408452810942</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>43.99250487283869</v>
+        <v>43.99250487278697</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>31.67330490863479</v>
+        <v>31.67330490854521</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>45.56793511487886</v>
+        <v>45.5679351148235</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>51.7698698024768</v>
+        <v>51.7698698024377</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>50.21501170864916</v>
+        <v>50.21501170861937</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>59.05172011205387</v>
+        <v>59.05172011207718</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>62.51089579859057</v>
+        <v>62.51089579864946</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>31.85640861959938</v>
+        <v>31.85640861959302</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>51.1815327596339</v>
+        <v>51.18153275966743</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>59.88221959543988</v>
+        <v>59.88221959543942</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>27.49978212690768</v>
+        <v>27.49978212695702</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>53.34745690174258</v>
+        <v>53.34745690174758</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>60.68464266162515</v>
+        <v>60.68464266157433</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.40117893878004</v>
+        <v>29.40117893874445</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>46.27022069685755</v>
+        <v>46.27022069680093</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>52.44005040841101</v>
+        <v>52.44005040832836</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>40.11966871839489</v>
+        <v>40.11966871839228</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>54.01640345418603</v>
+        <v>54.01640345418228</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>60.21970577854869</v>
+        <v>60.21970577856881</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>58.66712523542138</v>
+        <v>58.66712523544582</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>67.50458278810855</v>
+        <v>67.50458278810423</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>70.96483916719079</v>
+        <v>70.96483916718351</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>40.30490013753625</v>
+        <v>40.30490013751977</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>59.63233802973012</v>
+        <v>59.63233802965316</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>68.33500165223948</v>
+        <v>68.33500165218378</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>14.13478912477682</v>
+        <v>14.13478912478569</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>39.97512167882233</v>
+        <v>39.97512167879675</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>47.30824384873095</v>
+        <v>47.30824384868639</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>16.04048012222164</v>
+        <v>16.04048012230134</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>32.90213062128144</v>
+        <v>32.90213062128747</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>39.06820851945041</v>
+        <v>39.06820851944211</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>26.7518573999606</v>
+        <v>26.75185739990103</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>40.64139313283373</v>
+        <v>40.6413931327828</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>46.84119466236994</v>
+        <v>46.84119466241326</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>45.28562298628741</v>
+        <v>45.28562298625955</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>54.11796749322649</v>
+        <v>54.11796749316419</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>57.57567461131963</v>
+        <v>57.57567461129962</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>26.93036249201508</v>
+        <v>26.93036249202725</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>46.24680443451449</v>
+        <v>46.2468044345453</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>54.94647645944063</v>
+        <v>54.94647645942449</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>17.64066693683207</v>
+        <v>17.6406669368465</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>43.48606328259278</v>
+        <v>43.48606328248421</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>50.82165890778275</v>
+        <v>50.82165890768191</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>19.53876972846637</v>
+        <v>19.53876972835734</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>36.40523172441611</v>
+        <v>36.40523172444476</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>42.57354617220618</v>
+        <v>42.57354617212103</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>30.25464550045784</v>
+        <v>30.25464550041817</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>44.14905956804749</v>
+        <v>44.14905956803464</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>50.35090034179039</v>
+        <v>50.35090034174128</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>48.79629848051978</v>
+        <v>48.79629848048431</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>57.63284486551935</v>
+        <v>57.63284486551173</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>61.09199043488171</v>
+        <v>61.09199043487295</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>30.43794710841711</v>
+        <v>30.43794710839267</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>49.76282601737135</v>
+        <v>49.76282601731599</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>58.46336480568469</v>
+        <v>58.46336480561602</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>26.08149451267353</v>
+        <v>26.08149451261896</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>51.92897641424894</v>
+        <v>51.92897641422074</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>59.26606652521626</v>
+        <v>59.26606652513952</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>27.98255128632353</v>
+        <v>27.98255128630011</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>44.85135695556527</v>
+        <v>44.85135695554742</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>51.02108077141541</v>
+        <v>51.02108077134629</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>38.70099833871994</v>
+        <v>38.70099833871437</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>52.59751694284806</v>
+        <v>52.59751694285386</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>58.80072536161946</v>
+        <v>58.80072536163367</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>57.24840104575581</v>
+        <v>57.24840104573842</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>66.08569659235137</v>
+        <v>66.08569659230692</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>69.5459228558568</v>
+        <v>69.54592285586396</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>38.88642764302993</v>
+        <v>38.88642764305358</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>58.21362032516434</v>
+        <v>58.21362032512785</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>66.91613589869824</v>
+        <v>66.91613589865663</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>7.321525300666611</v>
+        <v>7.321525300694692</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>33.16039370625764</v>
+        <v>33.16039370620489</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>40.49392760390809</v>
+        <v>40.49392760392242</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>9.226619248731357</v>
+        <v>9.226619248669397</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>26.08657351379337</v>
+        <v>26.08657351375074</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>32.2531031449282</v>
+        <v>32.25310314487932</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>19.93651065370692</v>
+        <v>19.93651065373159</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>33.82451590220658</v>
+        <v>33.8245159022084</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>40.02468924629351</v>
+        <v>40.02468924630578</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>38.46914095324267</v>
+        <v>38.46914095324722</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>47.30100088216771</v>
+        <v>47.30100088215737</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>50.7591965344195</v>
+        <v>50.75919653446111</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>20.11583504141025</v>
+        <v>20.11583504141321</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>39.43007179455991</v>
+        <v>39.43007179449772</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>48.13053994726805</v>
+        <v>48.13053994721461</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>10.8302476406095</v>
+        <v>10.83024764063417</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>36.6741799310622</v>
+        <v>36.67417993103446</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>44.01018738144181</v>
+        <v>44.0101873814226</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>12.72775349691016</v>
+        <v>12.72775349692562</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.59251937267105</v>
+        <v>29.59251937271175</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>35.76128565071848</v>
+        <v>35.76128565078726</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>23.44214325972859</v>
+        <v>23.44214325974007</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>37.33502697081495</v>
+        <v>37.33502697081904</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>43.53723963478784</v>
+        <v>43.53723963479148</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>41.98266104848345</v>
+        <v>41.98266104850084</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>50.81872303920839</v>
+        <v>50.8187230392367</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>54.27835715451873</v>
+        <v>54.27835715453999</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>23.62626394937421</v>
+        <v>23.62626394948005</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>42.94893788711543</v>
+        <v>42.94893788713624</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>51.65027284285905</v>
+        <v>51.65027284290339</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>19.26824544098507</v>
+        <v>19.26824544099178</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>45.11426325970557</v>
+        <v>45.11426325973069</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>52.45176512160616</v>
+        <v>52.45176512162469</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>21.16870499090702</v>
+        <v>21.16870499090509</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>38.03581446030988</v>
+        <v>38.03581446030351</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>44.20599002337723</v>
+        <v>44.20599002343896</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>31.88566591524249</v>
+        <v>31.88566591521577</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>45.78065411358305</v>
+        <v>45.7806541135843</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>51.98423432200694</v>
+        <v>51.98423432198796</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>50.43193339398259</v>
+        <v>50.43193339401874</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>59.26874450397177</v>
+        <v>59.2687445040085</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>62.7294593409632</v>
+        <v>62.7294593409723</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>32.07191446390253</v>
+        <v>32.0719144638973</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>51.39690208321598</v>
+        <v>51.3969020832162</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>60.10021380500744</v>
+        <v>60.10021380503166</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>15.33663500399131</v>
+        <v>15.33663500401621</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>41.17647299331394</v>
+        <v>41.17647299330382</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>48.51010496890613</v>
+        <v>48.51010496888112</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>17.24239560141415</v>
+        <v>17.24239560148111</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>34.1033181119269</v>
+        <v>34.10331811194986</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>40.26994220683308</v>
+        <v>40.26994220688344</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>27.95303742539453</v>
+        <v>27.95303742535224</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>41.84191919134467</v>
+        <v>41.84191919132898</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>48.04219701787746</v>
+        <v>48.04219701789951</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>46.48626705636433</v>
+        <v>46.4862670563865</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>55.3185178464705</v>
+        <v>55.31851784645276</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>58.77672812532136</v>
+        <v>58.77672812534784</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>28.13190715055167</v>
+        <v>28.13190715059885</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>47.44706242077392</v>
+        <v>47.44706242076903</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>56.14767047234101</v>
+        <v>56.14767047229894</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>18.84758438788912</v>
+        <v>18.84758438786399</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>44.69248631819401</v>
+        <v>44.69248631819015</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>52.02859179015068</v>
+        <v>52.02859179014602</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>20.74575694590725</v>
+        <v>20.74575694589065</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>37.61149112451129</v>
+        <v>37.61149112452743</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>43.78035179799063</v>
+        <v>43.78035179799552</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>31.46089730171694</v>
+        <v>31.46089730175776</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>45.35465757551059</v>
+        <v>45.35465757554708</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>51.55697465818729</v>
+        <v>51.55697465822662</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>50.00201447819312</v>
+        <v>50.00201447808682</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>58.83846734280881</v>
+        <v>58.83846734280131</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>62.29811605354176</v>
+        <v>62.29811605348253</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>31.64456340285516</v>
+        <v>31.64456340288381</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>50.96815595007455</v>
+        <v>50.96815595013207</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>27.28383717237715</v>
+        <v>27.28383717236715</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>53.13082458061091</v>
+        <v>53.13082458058851</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>60.46842449827612</v>
+        <v>60.46842449825407</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.18496338296369</v>
+        <v>29.18496338296562</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>46.05304111084398</v>
+        <v>46.0530411108417</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>52.22331110083927</v>
+        <v>52.22331110086996</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>39.90267482001285</v>
+        <v>39.90267482007117</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>53.7985395407686</v>
+        <v>53.79853954078679</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>60.00222420673946</v>
+        <v>60.002224206739</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>58.44954177741771</v>
+        <v>58.44954177740554</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>67.28674375812328</v>
+        <v>67.28674375811282</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>70.74747320105779</v>
+        <v>70.74747320104733</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>40.08846891429231</v>
+        <v>40.08846891425434</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>59.41437510953197</v>
+        <v>59.41437510951958</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>68.11782671392892</v>
+        <v>68.11782671392255</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>18.54037924601333</v>
+        <v>18.54037924596036</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>44.37925128756284</v>
+        <v>44.37925128752475</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>51.71190820714138</v>
+        <v>51.71190820709556</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>20.44654319986136</v>
+        <v>20.44654319977575</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>37.307456482956</v>
+        <v>37.30745648297021</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>43.47318966286365</v>
+        <v>43.473189662835</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>31.15722566893963</v>
+        <v>31.15722566890894</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>45.04615551225378</v>
+        <v>45.04615551229777</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>51.24559994032732</v>
+        <v>51.2455999403703</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>49.68941806581732</v>
+        <v>49.68941806580538</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>58.52129919460525</v>
+        <v>58.52129919458922</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>61.97891659504261</v>
+        <v>61.97891659499975</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>31.33516462729994</v>
+        <v>31.33516462730607</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>50.65020443730462</v>
+        <v>50.65020443729621</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>59.34948906388375</v>
+        <v>59.34948906391274</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>22.05198156161065</v>
+        <v>22.05198156160667</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>47.89591710140165</v>
+        <v>47.8959171013597</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>55.23104717546595</v>
+        <v>55.23104717544912</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>23.95055812605141</v>
+        <v>23.95055812603845</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>40.81628264917593</v>
+        <v>40.81628264916741</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>46.98425207661136</v>
+        <v>46.98425207663466</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>34.66573901206765</v>
+        <v>34.66573901203718</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>48.55954692635736</v>
+        <v>48.55954692632552</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>54.76103030191415</v>
+        <v>54.76103030189562</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>53.20581823955762</v>
+        <v>53.20581823951385</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>62.04190100172046</v>
+        <v>62.04190100171932</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>65.50095668422306</v>
+        <v>65.50095668420259</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>34.84847402493743</v>
+        <v>34.8484740249355</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>54.17195036615327</v>
+        <v>54.17195036611973</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>62.87210157513049</v>
+        <v>62.87210157510934</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>30.48939679919237</v>
+        <v>30.48939679918566</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>56.33541763628465</v>
+        <v>56.3354176362411</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>63.67204205077142</v>
+        <v>63.67204205074323</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>32.39092687501521</v>
+        <v>32.39092687504477</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>49.25899477621782</v>
+        <v>49.25899477625056</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>55.42837342290885</v>
+        <v>55.4283734229525</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>43.1086787342134</v>
+        <v>43.10867873422147</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>57.00459093264872</v>
+        <v>57.00459093262451</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>63.20744182239785</v>
+        <v>63.20744182239751</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>61.6545072861836</v>
+        <v>61.65450728618178</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>70.49133911773423</v>
+        <v>70.49133911771047</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>73.95147537666661</v>
+        <v>73.95147537669025</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>43.29354145262674</v>
+        <v>43.29354145263004</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>62.61933128164263</v>
+        <v>62.61933128159204</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>71.32145912687825</v>
+        <v>71.32145912690781</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>6.621794820450749</v>
+        <v>6.621794820461435</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>32.45928075406515</v>
+        <v>32.45928075407981</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>39.79196795194831</v>
+        <v>39.79196795192978</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>8.527365587977204</v>
+        <v>8.527365588029841</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>25.38676767411492</v>
+        <v>25.38676767415642</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>31.55254997852534</v>
+        <v>31.55254997853125</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>19.23692349210249</v>
+        <v>19.23692349210272</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>33.12450668859945</v>
+        <v>33.12450668861617</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>39.32398793764422</v>
+        <v>39.32398793761443</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>37.76910853290882</v>
+        <v>37.76910853293417</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>46.60027038449947</v>
+        <v>46.60027038449435</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>50.05787837811498</v>
+        <v>50.05787837810054</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>19.41620213794294</v>
+        <v>19.41620213791724</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>38.72982406619484</v>
+        <v>38.72982406620461</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>47.42912657467672</v>
+        <v>47.42912657467637</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>10.1320154801732</v>
+        <v>10.13201548020014</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>35.97456502107933</v>
+        <v>35.97456502106284</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>43.30972564331897</v>
+        <v>43.30972564329123</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>12.02999900592703</v>
+        <v>12.0299990059368</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>28.89421243315677</v>
+        <v>28.89421243316007</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>35.06223128725911</v>
+        <v>35.0622312872715</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>22.74405514290037</v>
+        <v>22.74405514288354</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>36.63651653255987</v>
+        <v>36.63651653260534</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>42.8380370018608</v>
+        <v>42.83803700185523</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>41.28412710751034</v>
+        <v>41.28412710749568</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>50.11949067698434</v>
+        <v>50.11949067697775</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>53.57853706885486</v>
+        <v>53.5785370688635</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>22.92812975700382</v>
+        <v>22.92812975701371</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>42.25018838049697</v>
+        <v>42.25018838050413</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>50.95035765303849</v>
+        <v>50.95035765298097</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>18.57145833147694</v>
+        <v>18.57145833149206</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>44.41609327905654</v>
+        <v>44.41609327901482</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>51.75274817643513</v>
+        <v>51.75274817641422</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>20.47239551015206</v>
+        <v>20.47239551019617</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>37.33895242585707</v>
+        <v>37.33895242585162</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>43.50838043640805</v>
+        <v>43.50838043641168</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>31.18902270620093</v>
+        <v>31.18902270622174</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>45.08358847111741</v>
+        <v>45.08358847110411</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>51.28647637898915</v>
+        <v>51.28647637897039</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>49.73484400609867</v>
+        <v>49.73484400609435</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>58.57095664280494</v>
+        <v>58.57095664279755</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>62.03108361363728</v>
+        <v>62.03108361363182</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>31.37522498808663</v>
+        <v>31.37522498806355</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>50.69959714393688</v>
+        <v>50.69959714395542</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>59.40174301856437</v>
+        <v>59.40174301855028</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>3.606668798525778</v>
+        <v>3.606668798499744</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.44609618840126</v>
+        <v>29.44609618834453</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>36.77975043536217</v>
+        <v>36.77975043532818</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>5.512035229141123</v>
+        <v>5.51203522916602</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>22.37253670440338</v>
+        <v>22.37253670440872</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>28.53917822246807</v>
+        <v>28.53917822248376</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>16.22198454326587</v>
+        <v>16.22198454321721</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>30.11047650365957</v>
+        <v>30.11047650365628</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>36.31078176790503</v>
+        <v>36.31078176786194</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>34.75535487890237</v>
+        <v>34.75535487892635</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>43.58757798018245</v>
+        <v>43.5875779801945</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>47.04579514931287</v>
+        <v>47.04579514931162</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>16.40142294023041</v>
+        <v>16.4014229402461</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>35.71629937838121</v>
+        <v>35.71629937838166</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>44.41687355302359</v>
+        <v>44.41687355300245</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>7.114797272921681</v>
+        <v>7.114797272866884</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>32.95928856618978</v>
+        <v>32.95928856617034</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>40.29541634273458</v>
+        <v>40.29541634269252</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>9.012575542694197</v>
+        <v>9.01257554267487</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>25.87788864052265</v>
+        <v>25.87788864048195</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>32.04676677054657</v>
+        <v>32.04676677052633</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>19.72702329335003</v>
+        <v>19.72702329337573</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>33.62039372742798</v>
+        <v>33.62039372742593</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>39.82273828942128</v>
+        <v>39.82273828943867</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>38.26828125786231</v>
+        <v>38.2682812578265</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>47.10470643524819</v>
+        <v>47.1047064352715</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>50.56436205658984</v>
+        <v>50.56436205664112</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>19.91125818558338</v>
+        <v>19.91125818552915</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>39.23457185021276</v>
+        <v>39.23457185017979</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>47.93601280440895</v>
+        <v>47.93601280440338</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>15.55245787474654</v>
+        <v>15.55245787474245</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>41.39903468601413</v>
+        <v>41.39903468600822</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>48.73665694209488</v>
+        <v>48.73665694208624</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>17.45318991221619</v>
+        <v>17.4531899122686</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>34.32084660537508</v>
+        <v>34.32084660540896</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>40.49113408901938</v>
+        <v>40.49113408904769</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>28.17020881247378</v>
+        <v>28.17020881246593</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>42.0656837341031</v>
+        <v>42.06568373407605</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>48.26939590896585</v>
+        <v>48.26939590892731</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>46.71721654466317</v>
+        <v>46.7172165446617</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>55.55439086048692</v>
+        <v>55.55439086048192</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>59.01512723182951</v>
+        <v>59.01512723184713</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>28.3565716154394</v>
+        <v>28.35657161547225</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>47.68219898298717</v>
+        <v>47.6821989830098</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>56.38561676425012</v>
+        <v>56.38561676429821</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>20.96259900284871</v>
+        <v>20.96259900287736</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>46.80273843573956</v>
+        <v>46.80273843576775</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>54.13574178764928</v>
+        <v>54.13574178765803</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>22.86992201282191</v>
+        <v>22.8699220128667</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>39.73176138879886</v>
+        <v>39.73176138884547</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>45.89782739278824</v>
+        <v>45.89782739279097</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>33.58131415203478</v>
+        <v>33.58131415196475</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>47.47104244449643</v>
+        <v>47.4710424444754</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>53.67082028348567</v>
+        <v>53.67082028346168</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>52.1150378927117</v>
+        <v>52.1150378926893</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>60.94724713972208</v>
+        <v>60.94724713969332</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>64.40497044662696</v>
+        <v>64.40497044664242</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>33.7600513496909</v>
+        <v>33.76005134969976</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>53.07632005295953</v>
+        <v>53.07632005295191</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>61.77607771599331</v>
+        <v>61.7760777159509</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>24.46598633492987</v>
+        <v>24.46598633487689</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>50.31118934866161</v>
+        <v>50.31118934864104</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>57.6466659571406</v>
+        <v>57.64666595711036</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>26.36572112634814</v>
+        <v>26.36572112630198</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>43.23237180357647</v>
+        <v>43.23237180353622</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>49.40067416426028</v>
+        <v>49.40067416428188</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>37.08161145619032</v>
+        <v>37.08161145616928</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>50.97621792372625</v>
+        <v>50.97621792373171</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>57.17803480650922</v>
+        <v>57.17803480647432</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>55.62322240960428</v>
+        <v>55.62322240958768</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>64.45963342055016</v>
+        <v>64.45963342051355</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>67.91879508657529</v>
+        <v>67.91879508655346</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>37.2651451414773</v>
+        <v>37.26514514147401</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>56.58985058683162</v>
+        <v>56.589850586824</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>65.29047480141854</v>
+        <v>65.29047480140399</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>32.90510148715371</v>
+        <v>32.90510148713416</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>58.75238990765114</v>
+        <v>58.75238990761305</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>66.08936093619671</v>
+        <v>66.08936093619626</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>34.80779011380024</v>
+        <v>34.80779011375169</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>51.67678428953705</v>
+        <v>51.67678428954592</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>57.84649596018811</v>
+        <v>57.84649596017981</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>45.52625157443138</v>
+        <v>45.52625157437545</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>59.42296242829637</v>
+        <v>59.4229624282451</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>65.62614690614178</v>
+        <v>65.62614690614838</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>64.07361212198724</v>
+        <v>64.07361212201691</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>72.9107722382398</v>
+        <v>72.91077223828061</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>76.37101452551757</v>
+        <v>76.37101452552791</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>45.71191302019234</v>
+        <v>45.71191302020326</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>65.03893207080726</v>
+        <v>65.0389320708009</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>73.7415330264722</v>
+        <v>73.74153302643684</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>1.463825373228463</v>
+        <v>1.463825373225621</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>27.30079791610443</v>
+        <v>27.30079791608351</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>34.63356274439899</v>
+        <v>34.63356274441433</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>3.368142691440642</v>
+        <v>3.368142691322408</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>20.2270190334052</v>
+        <v>20.2270190333404</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>26.39286360569814</v>
+        <v>26.39286360567109</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>14.07759592474689</v>
+        <v>14.07759592476406</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>27.96475474240309</v>
+        <v>27.96475474241696</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>34.1642988418523</v>
+        <v>34.16429884183206</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>32.60929460606825</v>
+        <v>32.6092946060562</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>41.44048354843299</v>
+        <v>41.44048354847426</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>44.89804694163205</v>
+        <v>44.89804694156565</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>14.25637648758606</v>
+        <v>14.25637648760072</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>33.56982884513671</v>
+        <v>33.56982884509635</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>42.26909966762797</v>
+        <v>42.26909966760034</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>4.970595354419732</v>
+        <v>4.970595354421324</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>30.81263134781544</v>
+        <v>30.81263134779259</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>38.14786964909148</v>
+        <v>38.14786964903838</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>6.86732525931335</v>
+        <v>6.867325259329835</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>23.73101279710328</v>
+        <v>23.73101279709498</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.89909393899881</v>
+        <v>29.89909393899631</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>17.58127666044821</v>
+        <v>17.58127666044753</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>31.47331351064541</v>
+        <v>31.47331351058664</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>37.67489689312366</v>
+        <v>37.67489689313014</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>36.12086233707088</v>
+        <v>36.120862337086</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>44.95625297167622</v>
+        <v>44.95625297163973</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>48.41525474652813</v>
+        <v>48.41525474647925</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>17.7648535028004</v>
+        <v>17.76485350273457</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>37.08674228080598</v>
+        <v>37.08674228074902</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>45.78687999962879</v>
+        <v>45.7868799996122</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>13.41082497378646</v>
+        <v>13.41082497378897</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>39.25494638278165</v>
+        <v>39.25494638272299</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>46.5916789903274</v>
+        <v>46.59167899022997</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>15.31050867538203</v>
+        <v>15.31050867538817</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>32.17653971785386</v>
+        <v>32.17653971786625</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>38.34603005602092</v>
+        <v>38.34603005598989</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>26.02703113083475</v>
+        <v>26.0270311308327</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>39.92117237331932</v>
+        <v>39.92117237331716</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>46.12412321536202</v>
+        <v>46.12412321539715</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>44.57236605192121</v>
+        <v>44.57236605188744</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>53.40850576157332</v>
+        <v>53.40850576144952</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>56.86858817318817</v>
+        <v>56.86858817307471</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>26.21273555882327</v>
+        <v>26.21273555886215</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>45.53693792419118</v>
+        <v>45.53693792410796</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>54.23905224191911</v>
+        <v>54.23905224188671</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>11.84898427724123</v>
+        <v>11.84898427723896</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>37.6881476768318</v>
+        <v>37.68814767685511</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>45.02096841017611</v>
+        <v>45.02096841014826</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>13.75387209910331</v>
+        <v>13.75387209912002</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>30.61466588573829</v>
+        <v>30.61466588577922</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>36.78045390413796</v>
+        <v>36.78045390412863</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>24.46462659292284</v>
+        <v>24.46462659292535</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>38.35343237168671</v>
+        <v>38.35343237162782</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>44.55293956360627</v>
+        <v>44.55293956354932</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>42.99722836796717</v>
+        <v>42.99722836795614</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>51.82925663053651</v>
+        <v>51.82925663052661</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>55.28683906495631</v>
+        <v>55.28683906494301</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>24.64272955744035</v>
+        <v>24.64272955745308</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>43.95815737025224</v>
+        <v>43.95815737023757</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>52.65740578541327</v>
+        <v>52.65740578542737</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>15.35917369280707</v>
+        <v>15.35917369280684</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>41.20340075537557</v>
+        <v>41.2034007554049</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>48.53869486462143</v>
+        <v>48.53869486460711</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>17.25647387344826</v>
+        <v>17.25647387349612</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>34.12207904275179</v>
+        <v>34.12207904278021</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>40.29010352975227</v>
+        <v>40.2901035297849</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>27.9717269271665</v>
+        <v>27.97172692725552</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>41.86541089626574</v>
+        <v>41.86541089625972</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>48.06695726743963</v>
+        <v>48.06695726745214</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>46.51221576068768</v>
+        <v>46.51221576067063</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>55.34844576612828</v>
+        <v>55.34844576613465</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>58.80746658999236</v>
+        <v>58.80746659000441</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>28.15462609359746</v>
+        <v>28.1546260936302</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>47.47849060320787</v>
+        <v>47.47849060322334</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>56.17860580442992</v>
+        <v>56.17860580445061</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>23.79931757854307</v>
+        <v>23.79931757858821</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>49.64563011957692</v>
+        <v>49.64563011956317</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>56.98241865707585</v>
+        <v>56.98241865706392</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>25.69957154146629</v>
+        <v>25.69957154145969</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>42.56752029609537</v>
+        <v>42.56752029607695</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>48.73695409085984</v>
+        <v>48.73695409084324</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>36.41739576745202</v>
+        <v>36.41739576746089</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>50.31318419884438</v>
+        <v>50.31318419882244</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>56.51609815623816</v>
+        <v>56.51609815623986</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>54.96363407688885</v>
+        <v>54.96363407684599</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>63.80061321474771</v>
+        <v>63.80061321473566</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>67.26071470152873</v>
+        <v>67.26071470151338</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>36.60242253191289</v>
+        <v>36.60242253195655</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>55.9286007307462</v>
+        <v>55.92860073075211</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>64.63069263363001</v>
+        <v>64.63069263362068</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>1.70880693692094</v>
+        <v>1.708806936904683</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>27.546882460108</v>
+        <v>27.54688246008651</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>34.87966170462037</v>
+        <v>34.8796617045973</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>3.613044720221968</v>
+        <v>3.613044720195024</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>20.47271947795001</v>
+        <v>20.47271947798457</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>26.638474444415</v>
+        <v>26.63847444442444</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>14.32307088810295</v>
+        <v>14.3230708881266</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.21085561611686</v>
+        <v>28.21085561614881</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>34.410322133956</v>
+        <v>34.41032213396805</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>32.85513893945948</v>
+        <v>32.85513893942378</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>41.68670552926186</v>
+        <v>41.68670552929017</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>45.14422425519795</v>
+        <v>45.14422425518113</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>14.50174992790754</v>
+        <v>14.50174992792698</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>33.81603786211188</v>
+        <v>33.81603786211404</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>42.51522565720425</v>
+        <v>42.5152256571814</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>5.212417763698557</v>
+        <v>5.212417763725387</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>31.05555682668465</v>
+        <v>31.055556826651</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>38.39080954480936</v>
+        <v>38.39080954475411</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>7.109067578685643</v>
+        <v>7.109067578705879</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>23.97355358860135</v>
+        <v>23.97355358866036</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>30.14154513739503</v>
+        <v>30.14154513737536</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>17.82359192647845</v>
+        <v>17.8235919264498</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>31.71625474682195</v>
+        <v>31.71625474679989</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>37.91776054757132</v>
+        <v>37.91776054756018</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>36.36354716022844</v>
+        <v>36.36354716014806</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>45.19931549649117</v>
+        <v>45.19931549646013</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>48.65827266637881</v>
+        <v>48.65827266631878</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>18.00706743331067</v>
+        <v>18.00706743343629</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>37.32979195680569</v>
+        <v>37.32979195683355</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>46.02984661487947</v>
+        <v>46.02984661490346</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>13.65585778474291</v>
+        <v>13.65585778474507</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>39.50108241096426</v>
+        <v>39.50108241093891</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>46.83782949962277</v>
+        <v>46.83782949959435</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>15.55546151023553</v>
+        <v>15.5554615101871</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>32.42229118080353</v>
+        <v>32.42229118078454</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>38.59169198350104</v>
+        <v>38.59169198348114</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>26.27255723829795</v>
+        <v>26.27255723827556</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>40.16732459458454</v>
+        <v>40.16732459455521</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>46.37019792355282</v>
+        <v>46.37019792355896</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>44.81826187389832</v>
+        <v>44.81826187388593</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>53.65477933833755</v>
+        <v>53.65477933834858</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>57.11481714555383</v>
+        <v>57.11481714550256</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>26.45816015426066</v>
+        <v>26.45816015432353</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>45.78319842051177</v>
+        <v>45.78319842053985</v>
       </c>
     </row>
     <row r="540">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-4.365998406729442</v>
+        <v>-4.365998406657592</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>21.47073112829979</v>
+        <v>21.47073112830207</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>28.80312821204221</v>
+        <v>28.8031282120039</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-2.462422028322077</v>
+        <v>-2.462422028409616</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>14.39621394840627</v>
+        <v>14.39621394838672</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>20.56160642891881</v>
+        <v>20.56160642887413</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>8.246639888078665</v>
+        <v>8.246639888025459</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>22.13351737870788</v>
+        <v>22.13351737869788</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>28.33261453623787</v>
+        <v>28.33261453621207</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>26.77758391347833</v>
+        <v>26.77758391345354</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>35.60875819738179</v>
+        <v>35.60875819737088</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>39.06617350818259</v>
+        <v>39.06617350814768</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>8.425369601223554</v>
+        <v>8.425369601220485</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>27.73848270166262</v>
+        <v>27.73848270167331</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>36.43721834035033</v>
+        <v>36.43721834033362</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-0.86059359797515</v>
+        <v>-0.860593597994022</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>24.98119930103427</v>
+        <v>24.98119930094196</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>32.31606976850911</v>
+        <v>32.31606976852196</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>1.035395210699892</v>
+        <v>1.035395210705349</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>17.89884227346703</v>
+        <v>17.89884227349954</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>24.06647125288781</v>
+        <v>24.06647125290941</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>11.74895525300734</v>
+        <v>11.74895525298574</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>25.64071065346512</v>
+        <v>25.64071065342147</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>31.84184702352933</v>
+        <v>31.84184702352967</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>30.28778611361234</v>
+        <v>30.28778611361678</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>39.12316198422364</v>
+        <v>39.12316198426105</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>42.58201568237915</v>
+        <v>42.58201568235084</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>11.93248113564254</v>
+        <v>11.93248113558274</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>31.25403049297096</v>
+        <v>31.25403049292253</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>39.95363298420533</v>
+        <v>39.95363298413984</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>7.582708672961292</v>
+        <v>7.582708672935144</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>33.42658707141162</v>
+        <v>33.42658707139388</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>40.76295187246716</v>
+        <v>40.76295187244749</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>9.481651234065101</v>
+        <v>9.481651234085565</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>26.34744188478486</v>
+        <v>26.34744188480464</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>32.51648008315952</v>
+        <v>32.51648008315566</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>20.19778257313634</v>
+        <v>20.19778257314009</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>34.09164244447173</v>
+        <v>34.0916424444756</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>40.29414630368227</v>
+        <v>40.2941463036659</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>38.74236257150652</v>
+        <v>38.74236257148571</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>47.57848755370001</v>
+        <v>47.57848755369456</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>51.03842186136227</v>
+        <v>51.03842186133907</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>20.38343574406393</v>
+        <v>20.38343574407826</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>39.70729877544919</v>
+        <v>39.70729877546385</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>48.40887784866014</v>
+        <v>48.4088778486374</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>8.416011646128016</v>
+        <v>8.41601164612381</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>34.25535531528816</v>
+        <v>34.25535531522779</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>41.58903585892959</v>
+        <v>41.58903585888832</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>10.32103471901847</v>
+        <v>10.32103471900063</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>27.18137279463814</v>
+        <v>27.18137279462893</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>33.34804987677784</v>
+        <v>33.34804987678625</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>21.03140177765032</v>
+        <v>21.03140177768352</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>34.91976063924061</v>
+        <v>34.91976063927369</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>41.12010375893657</v>
+        <v>41.12010375886256</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>39.56457530584565</v>
+        <v>39.56457530584417</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>48.39656378066842</v>
+        <v>48.3965637806641</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>51.85473763291633</v>
+        <v>51.85473763284595</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>21.21068667395899</v>
+        <v>21.21068667397104</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>40.52539961365333</v>
+        <v>40.52539961364651</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>49.22603782031159</v>
+        <v>49.22603782032682</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>11.92227384521935</v>
+        <v>11.92227384520367</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>37.76668141748472</v>
+        <v>37.76668141749984</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>45.10283552016129</v>
+        <v>45.10283552017289</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>13.81970857464863</v>
+        <v>13.81970857462749</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>30.68485827283631</v>
+        <v>30.68485827285473</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>36.85377200229276</v>
+        <v>36.85377200223614</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>24.53457394629583</v>
+        <v>24.53457394625422</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>38.42781129169849</v>
+        <v>38.42781129170918</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>44.63019373074097</v>
+        <v>44.63019373076382</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>43.07563511032093</v>
+        <v>43.07563511027239</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>51.91182567646352</v>
+        <v>51.91182567645772</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>55.37143799954775</v>
+        <v>55.37143799953309</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>24.71865538630572</v>
+        <v>24.71865538626058</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>44.04180556931702</v>
+        <v>44.04180556928223</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>52.74331056860579</v>
+        <v>52.74331056859022</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>20.36088812354796</v>
+        <v>20.36088812353931</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>46.20738126418699</v>
+        <v>46.20738126418836</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>53.54502980046458</v>
+        <v>53.54502980049959</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>22.26127668540765</v>
+        <v>22.26127668544551</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>39.12877002875972</v>
+        <v>39.12877002881361</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>45.29909306483385</v>
+        <v>45.29909306484579</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>32.9787132735281</v>
+        <v>32.97871327349934</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>46.87405514839894</v>
+        <v>46.87405514844464</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>53.07780515575813</v>
+        <v>53.07780515575801</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>51.52552423530913</v>
+        <v>51.52552423527128</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>60.36246393420707</v>
+        <v>60.36246393420753</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>63.82315698655621</v>
+        <v>63.82315698654018</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>33.16492258906372</v>
+        <v>33.16492258902746</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>52.4903865066036</v>
+        <v>52.4903865065662</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>61.19386830344079</v>
+        <v>61.19386830343886</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>12.70622167885596</v>
+        <v>12.70622167885243</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>38.54515229746606</v>
+        <v>38.54515229752916</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>45.8781372050165</v>
+        <v>45.87813720501525</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>14.61129980270947</v>
+        <v>14.61129980269412</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>31.47187430882217</v>
+        <v>31.47187430878079</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>37.63784596261131</v>
+        <v>37.63784596256947</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>25.32202217048188</v>
+        <v>25.32202217046289</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>39.21066225635569</v>
+        <v>39.21066225632124</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>45.41034448579693</v>
+        <v>45.41034448576919</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>43.85471271335597</v>
+        <v>43.85471271330753</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>52.68673207953417</v>
+        <v>52.68673207950938</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>56.14431634153821</v>
+        <v>56.14431634150661</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>25.50032508479272</v>
+        <v>25.5003250847385</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>44.81570855340816</v>
+        <v>44.81570855338622</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>53.51517741890574</v>
+        <v>53.51517741887015</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>16.20902328427268</v>
+        <v>16.20902328430576</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>42.05301742113669</v>
+        <v>42.0530174211659</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>49.38847577716864</v>
+        <v>49.38847577714317</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>18.10651339740763</v>
+        <v>18.10651339741343</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>34.97189913901126</v>
+        <v>34.97189913902808</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>41.14010733227086</v>
+        <v>41.14010733229496</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.82173395076619</v>
+        <v>28.82173395074391</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>42.71525210516869</v>
+        <v>42.71525210518926</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>48.91697358914267</v>
+        <v>48.91697358915677</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>47.36231173699285</v>
+        <v>47.36231173701979</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>56.19853283803319</v>
+        <v>56.19853283808776</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>59.6575555094813</v>
+        <v>59.65755550954292</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.00483343730797</v>
+        <v>29.00483343727364</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>48.32865346096069</v>
+        <v>48.32865346093079</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>57.02898916518369</v>
+        <v>57.02898916515299</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>24.64970517585811</v>
+        <v>24.64970517590756</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>50.49578480710623</v>
+        <v>50.4957848071051</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>57.83273757792641</v>
+        <v>57.83273757799746</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>26.55014920370762</v>
+        <v>26.55014920368204</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>43.41787854832886</v>
+        <v>43.4178785483217</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>49.58749604048545</v>
+        <v>49.58749604048056</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>37.26794096047227</v>
+        <v>37.26794096051991</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>51.16356359698146</v>
+        <v>51.16356359703046</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>57.36665264698773</v>
+        <v>57.36665264699705</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>55.81426823120067</v>
+        <v>55.81426823119385</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>64.65123846780067</v>
+        <v>64.6512384678001</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>68.11134182353929</v>
+        <v>68.11134182356487</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>37.45316807228629</v>
+        <v>37.45316807238611</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>56.77930179343478</v>
+        <v>56.77930179342921</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>65.48161419424854</v>
+        <v>65.48161419425911</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>16.86247585759996</v>
+        <v>16.86247585757393</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>42.70340204434227</v>
+        <v>42.70340204438172</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>50.03725631226699</v>
+        <v>50.03725631231599</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>18.76895074720175</v>
+        <v>18.76895074717469</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>35.63074705212351</v>
+        <v>35.63074705208201</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>41.79759412686222</v>
+        <v>41.79759412682084</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.48013852144424</v>
+        <v>29.48013852137318</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>43.36978194712275</v>
+        <v>43.36978194704305</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>49.57028666365976</v>
+        <v>49.57028666360701</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>48.014381364752</v>
+        <v>48.01438136470834</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>56.84698684154465</v>
+        <v>56.84698684154192</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>60.30526408499621</v>
+        <v>60.30526408496824</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.65918946615101</v>
+        <v>29.65918946612384</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>48.97544803405525</v>
+        <v>48.97544803400511</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>57.67635207206489</v>
+        <v>57.67635207208228</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>20.36970090901888</v>
+        <v>20.36970090903604</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>46.21569112135954</v>
+        <v>46.21569112134181</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>53.55201893595334</v>
+        <v>53.55201893592208</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>22.26858728601552</v>
+        <v>22.26858728596675</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>39.13519533249767</v>
+        <v>39.13519533246209</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>45.30427903097164</v>
+        <v>45.3042790309464</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>32.98427357587478</v>
+        <v>32.98427357586034</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>46.87879560888801</v>
+        <v>46.87879560891155</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>53.08133961792133</v>
+        <v>53.08133961790905</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>51.52640424243656</v>
+        <v>51.52640424240518</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>60.36321190410273</v>
+        <v>60.36321190410796</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>63.82292762445967</v>
+        <v>63.8229276244267</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>33.16812116117704</v>
+        <v>33.16812116116442</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>52.49281719661552</v>
+        <v>52.49281719652923</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>61.1945879588511</v>
+        <v>61.19458795881665</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>28.80678070461635</v>
+        <v>28.80678070461476</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>54.65485645457908</v>
+        <v>54.65485645459988</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>61.99267875707925</v>
+        <v>61.99267875709937</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>30.70862092390381</v>
+        <v>30.70862092387425</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>47.57757259088486</v>
+        <v>47.57757259088667</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>53.74806565466655</v>
+        <v>53.74806565468712</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>41.42687837844652</v>
+        <v>41.42687837847926</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>55.32350492126282</v>
+        <v>55.3235049212477</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>61.52741655804139</v>
+        <v>61.52741655804628</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>59.97475901807148</v>
+        <v>59.97475901806011</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>68.81231581283019</v>
+        <v>68.8123158128377</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>72.27311227962922</v>
+        <v>72.27311227963081</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>41.61285400964083</v>
+        <v>41.61285400965276</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>60.93986376464044</v>
+        <v>60.93986376468045</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>69.64361138954142</v>
+        <v>69.64361138949799</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>13.38547298155503</v>
+        <v>13.38547298152229</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>39.22459118656751</v>
+        <v>39.22459118643381</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>46.55829319212852</v>
+        <v>46.5582931919257</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>15.29156095231143</v>
+        <v>15.291560952312</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>32.15179080420113</v>
+        <v>32.15179080429026</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>38.3185266075544</v>
+        <v>38.31852660763978</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>26.00155188286896</v>
+        <v>26.00155188284497</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>39.88984466449823</v>
+        <v>39.88984466441126</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>46.09021425924549</v>
+        <v>46.09021425919865</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>44.53436834686578</v>
+        <v>44.53436834690329</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>53.36634054306136</v>
+        <v>53.36634054305408</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>56.8246095647538</v>
+        <v>56.82460956474766</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>26.18063535542591</v>
+        <v>26.18063535540727</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>45.49514891310535</v>
+        <v>45.49514891307193</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>54.19588499223322</v>
+        <v>54.19588499214568</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>16.89417336782298</v>
+        <v>16.89417336785549</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>42.73835541881589</v>
+        <v>42.73835541880486</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>50.07453094051913</v>
+        <v>50.07453094047922</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>18.79267336312488</v>
+        <v>18.79267336312272</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>35.65771478887847</v>
+        <v>35.65771478887949</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>41.82668719888805</v>
+        <v>41.82668719885338</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.50716257017642</v>
+        <v>29.5071625700915</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>43.40033377814505</v>
+        <v>43.40033377818689</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>49.60274265319138</v>
+        <v>49.60274265319082</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>48.04786649010553</v>
+        <v>48.04786649010178</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>56.88404070802584</v>
+        <v>56.88404070803334</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>60.34374815994862</v>
+        <v>60.34374815994418</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.69104235841609</v>
+        <v>29.69104235830456</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>49.01399307707082</v>
+        <v>49.01399307703899</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>57.71559590588014</v>
+        <v>57.71559590583341</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>25.33065466705624</v>
+        <v>25.33065466711684</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>51.17692218921955</v>
+        <v>51.17692218921751</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>58.51459212230826</v>
+        <v>58.5145921223194</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>27.2321083509156</v>
+        <v>27.23210835088945</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>44.09949331292545</v>
+        <v>44.0994933129525</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>50.26987500563108</v>
+        <v>50.26987500564745</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>37.94916861574221</v>
+        <v>37.94916861562909</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>51.84444426179333</v>
+        <v>51.84444426177673</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>58.04822067985127</v>
+        <v>58.04822067987537</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>56.49562225411556</v>
+        <v>56.49562225413295</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>65.33254558363818</v>
+        <v>65.33254558367331</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>68.79333376969861</v>
+        <v>68.79333376972441</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>38.1351763647916</v>
+        <v>38.13517636478637</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>57.46044071147104</v>
+        <v>57.4604407114583</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>66.1640203226476</v>
+        <v>66.16402032269228</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>11.77819540680024</v>
+        <v>11.77819540677807</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>37.61863396836019</v>
+        <v>37.61863396825287</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>44.95218564888147</v>
+        <v>44.95218564884395</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>13.68346953914032</v>
+        <v>13.68346953909746</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>30.54496456101321</v>
+        <v>30.5449645609791</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>36.71148345039909</v>
+        <v>36.71148345035964</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>24.39473358686131</v>
+        <v>24.39473358684221</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>38.28415426567891</v>
+        <v>38.28415426562502</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>44.48438708424361</v>
+        <v>44.4843870842361</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>42.92874834573057</v>
+        <v>42.92874834574751</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>51.76123246774135</v>
+        <v>51.76123246772794</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>55.21915641884674</v>
+        <v>55.21915641882912</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>24.57325471582759</v>
+        <v>24.5732547158825</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>43.88964123786148</v>
+        <v>43.8896412378442</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>52.58991834797415</v>
+        <v>52.58991834796346</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>15.28284633616009</v>
+        <v>15.28284633614736</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>41.12834876288763</v>
+        <v>41.12834876291286</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>48.46437399032742</v>
+        <v>48.46437399029593</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>17.18053203062367</v>
+        <v>17.18053203065232</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>34.04683863613091</v>
+        <v>34.04683863607748</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>40.2155941482731</v>
+        <v>40.2155941482507</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>27.89629451612733</v>
+        <v>27.89629451609857</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>41.79059362271015</v>
+        <v>41.79059362268571</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>47.99286576136784</v>
+        <v>47.99286576134908</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>46.43819695453406</v>
+        <v>46.43819695460489</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>55.2748830984825</v>
+        <v>55.27488309845124</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>58.73424549618265</v>
+        <v>58.73424549618595</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.07961243555768</v>
+        <v>28.07961243558212</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>47.40443607744679</v>
+        <v>47.40443607743883</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>56.10558002806998</v>
+        <v>56.10558002801393</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>23.72201319635188</v>
+        <v>23.7220131962864</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>49.5696011869229</v>
+        <v>49.56960118684945</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>56.90712091467161</v>
+        <v>56.9071209146458</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>25.6226528975959</v>
+        <v>25.62265289759261</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>42.49130318092419</v>
+        <v>42.49130318090305</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>48.66146807211429</v>
+        <v>48.66146807211543</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>36.34098659504444</v>
+        <v>36.34098659504956</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>50.23739024460529</v>
+        <v>50.23739024460609</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>56.44103003274971</v>
+        <v>56.4410300327488</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>54.88863887256421</v>
+        <v>54.88863887252158</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>63.72607418827543</v>
+        <v>63.72607418821813</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>67.18651734327976</v>
+        <v>67.18651734329352</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>36.52643238882546</v>
+        <v>36.52643238884444</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>55.85356981945073</v>
+        <v>55.85356981943856</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>64.55669058450438</v>
+        <v>64.55669058447823</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>5.446677453842756</v>
+        <v>5.446677453797509</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>31.28441975718885</v>
+        <v>31.28441975714974</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>38.61754902331289</v>
+        <v>38.61754902331607</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>7.351749312345067</v>
+        <v>7.351749312307209</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>24.21107372106995</v>
+        <v>24.2110737211235</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>30.37723384125876</v>
+        <v>30.37723384124068</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>18.06117427362857</v>
+        <v>18.06117427353887</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>31.94867591926435</v>
+        <v>31.94867591916601</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>38.14852984991192</v>
+        <v>38.14852984983575</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>36.59329789611967</v>
+        <v>36.59329789607339</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>45.42471462293859</v>
+        <v>45.42471462297725</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>48.88265163552249</v>
+        <v>48.88265163550214</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>18.24018012656665</v>
+        <v>18.24018012656903</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>37.55373337305501</v>
+        <v>37.55373337302568</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>46.25375736354384</v>
+        <v>46.25375736353838</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>8.956173051520171</v>
+        <v>8.956173051498116</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>34.7989791017079</v>
+        <v>34.79897910166299</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>42.13458184674651</v>
+        <v>42.13458184674367</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>10.85365746649437</v>
+        <v>10.85365746643639</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>27.71779336684766</v>
+        <v>27.71779336678786</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>33.88619007240139</v>
+        <v>33.88619007233386</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>21.56758060897413</v>
+        <v>21.56758060893718</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>35.45996058254399</v>
+        <v>35.45996058258741</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>41.66185378711656</v>
+        <v>41.66185378710666</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>40.10759149818806</v>
+        <v>40.10759149821375</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>48.94321011601811</v>
+        <v>48.94321011598412</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>52.40258558846038</v>
+        <v>52.40258558844117</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>21.75138270974729</v>
+        <v>21.75138270973638</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>41.07337286700907</v>
+        <v>41.07337286699725</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>49.77426369901785</v>
+        <v>49.77426369900012</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>17.39331867883503</v>
+        <v>17.39331867880945</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>43.23821014821907</v>
+        <v>43.2382101481421</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>50.57530722406669</v>
+        <v>50.57530722403042</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>19.29375662412916</v>
+        <v>19.29375662409835</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>36.1602360105977</v>
+        <v>36.16023601055893</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>42.33004192651843</v>
+        <v>42.33004192649638</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>30.01025076095651</v>
+        <v>30.01025076092525</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>43.90473512379832</v>
+        <v>43.9047351237699</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>50.10799579533169</v>
+        <v>50.10799579533067</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>48.55601107505764</v>
+        <v>48.55601107497431</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>57.39237875591583</v>
+        <v>57.39237875590969</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>60.85283487678349</v>
+        <v>60.8528348767686</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>30.19618063870006</v>
+        <v>30.19618063872098</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>49.52048436133371</v>
+        <v>49.52048436130529</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>58.22335186281587</v>
+        <v>58.2233518627804</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>11.38444795694669</v>
+        <v>11.3844479569468</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>37.22334400306418</v>
+        <v>37.2233440029995</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>44.55704510212068</v>
+        <v>44.55704510212864</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>13.29036453442767</v>
+        <v>13.29036453438311</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>30.15039288981938</v>
+        <v>30.15039288976981</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>36.31713496400936</v>
+        <v>36.31713496398389</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>24.00021688999287</v>
+        <v>24.00021688990215</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>37.88833428634062</v>
+        <v>37.88833428627491</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>44.08870508992764</v>
+        <v>44.08870508991355</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>42.53299410757403</v>
+        <v>42.5329941075688</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>51.36488046869145</v>
+        <v>51.36488046870805</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>54.82315926599584</v>
+        <v>54.82315926602858</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>24.17945009376819</v>
+        <v>24.17945009377455</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>43.49376376274641</v>
+        <v>43.49376376271913</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>52.19449301753501</v>
+        <v>52.19449301750954</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>14.89283993077457</v>
+        <v>14.8928399307889</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>40.73679981174233</v>
+        <v>40.73679981163023</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>48.07297444879781</v>
+        <v>48.072974448723</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>16.79116855775839</v>
+        <v>16.79116855771405</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>33.65600847833569</v>
+        <v>33.65600847830318</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>39.8249871835577</v>
+        <v>39.82498718352052</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>27.50551915235723</v>
+        <v>27.50551915228094</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>41.39851496723064</v>
+        <v>41.3985149671888</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>47.60092507424416</v>
+        <v>47.60092507417095</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>46.04618382048044</v>
+        <v>46.0461838204893</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>54.88227220298766</v>
+        <v>54.88227220304042</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>58.34198943742182</v>
+        <v>58.3419894374674</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>27.68954866914941</v>
+        <v>27.68954866914384</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>47.01229948435581</v>
+        <v>47.01229948435274</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>55.71389551337573</v>
+        <v>55.7138955133962</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>23.32944570107212</v>
+        <v>23.3294457010869</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>49.17549105179295</v>
+        <v>49.17549105174088</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>56.5131600881807</v>
+        <v>56.51316008816364</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>25.2307280093812</v>
+        <v>25.23072800936392</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>42.09791146262693</v>
+        <v>42.09791146256156</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>48.26829943913968</v>
+        <v>48.26829943911376</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>35.94764966476826</v>
+        <v>35.94764966472108</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>49.84274991476092</v>
+        <v>49.84274991478024</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>56.04652755191363</v>
+        <v>56.04652755191158</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>54.49406402866576</v>
+        <v>54.49406402868838</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>63.33090151453494</v>
+        <v>63.33090151451175</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>66.79169947938941</v>
+        <v>66.79169947938895</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>36.13380713200876</v>
+        <v>36.13380713195828</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>55.45887156551872</v>
+        <v>55.45887156548177</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>64.16244436789508</v>
+        <v>64.16244436782618</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>16.60791817590222</v>
+        <v>16.607918175868</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>42.4469650312394</v>
+        <v>42.44696503120689</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>49.78011644288823</v>
+        <v>49.78011644288073</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>18.5141952740331</v>
+        <v>18.5141952740572</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>35.37476092779455</v>
+        <v>35.37476092783162</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>41.54095606516954</v>
+        <v>41.54095606516977</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>29.22475877462363</v>
+        <v>29.22475877464864</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>43.11333888313071</v>
+        <v>43.11333888313571</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>49.31322889056604</v>
+        <v>49.31322889057013</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>47.75761160816704</v>
+        <v>47.75761160815624</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>56.58937552867256</v>
+        <v>56.58937552869439</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>60.04718841920668</v>
+        <v>60.04718841924635</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>29.40372219744289</v>
+        <v>29.40372219749644</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>48.71859226438276</v>
+        <v>48.71859226433229</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>57.41860639644084</v>
+        <v>57.41860639633215</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>20.11355656111401</v>
+        <v>20.1135565610948</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>45.95766707311883</v>
+        <v>45.95766707305039</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>53.29329186515746</v>
+        <v>53.29329186506662</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>22.01224559248884</v>
+        <v>22.01224559249123</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>38.8776226237221</v>
+        <v>38.8776226237503</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>45.04605425057763</v>
+        <v>45.04605425060537</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>32.72730728957468</v>
+        <v>32.72730728950249</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>46.62076563886033</v>
+        <v>46.62076563886045</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>52.8226948178759</v>
+        <v>52.82269481784429</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>51.26804740441672</v>
+        <v>51.26804740438807</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>60.10401311605152</v>
+        <v>60.10401311601753</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>63.56326440937299</v>
+        <v>63.56326440937356</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>32.91106709138761</v>
+        <v>32.91106709138329</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>52.23437401509476</v>
+        <v>52.23437401505235</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>60.93525478089269</v>
+        <v>60.9352547808703</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>28.55135258097924</v>
+        <v>28.55135258104632</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>54.39754852093243</v>
+        <v>54.39754852093141</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>61.73466769214632</v>
+        <v>61.73466769216917</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>30.45299535352409</v>
+        <v>30.45299535347953</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>47.32071589616156</v>
+        <v>47.32071589613189</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>53.49055677910131</v>
+        <v>53.49055677909119</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>41.17062811115578</v>
+        <v>41.17062811116521</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>55.06619086509225</v>
+        <v>55.06619086501335</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>61.26948757307115</v>
+        <v>61.26948757301271</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>59.71711781310067</v>
+        <v>59.71711781309828</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>68.55383265995782</v>
+        <v>68.55383265995793</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>72.01416461145969</v>
+        <v>72.01416461149164</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>41.35651573550966</v>
+        <v>41.35651573551353</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>60.68213626973032</v>
+        <v>60.68213626973714</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>69.38499375934246</v>
+        <v>69.38499375933735</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>12.62026807699907</v>
+        <v>12.62026807701965</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>38.46063642167768</v>
+        <v>38.46063642165642</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>45.79416409247015</v>
+        <v>45.79416409244537</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>14.52565993074721</v>
+        <v>14.52565993070651</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>31.38714438472015</v>
+        <v>31.38714438472174</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>37.55364233485328</v>
+        <v>37.55364233485157</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>25.23687490790927</v>
+        <v>25.23687490792269</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>39.12629636070606</v>
+        <v>39.12629636074972</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>45.32651237551919</v>
+        <v>45.326512375565</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>43.77088518187178</v>
+        <v>43.77088518188314</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>52.60331358765505</v>
+        <v>52.6033135876322</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>56.06126185071649</v>
+        <v>56.06126185071967</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>25.41544160467878</v>
+        <v>25.41544160467764</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>44.73178363246244</v>
+        <v>44.73178363245039</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>53.43205142324221</v>
+        <v>53.43205142319935</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>16.12524716152346</v>
+        <v>16.12524716146992</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>41.9706793554053</v>
+        <v>41.97067935544145</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>49.306680560819</v>
+        <v>49.30668056084413</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>18.02305064281687</v>
+        <v>18.02305064285757</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>34.8893466648726</v>
+        <v>34.8893466648867</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>41.05808122949178</v>
+        <v>41.05808122948882</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>28.73876403665189</v>
+        <v>28.73876403670089</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>42.6330639029495</v>
+        <v>42.63306390295473</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>48.83531922672294</v>
+        <v>48.83531922672306</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>47.28066194694814</v>
+        <v>47.28066194691529</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>56.11729235102869</v>
+        <v>56.1172923510362</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>59.57667905072411</v>
+        <v>59.57667905073673</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>28.92212748335793</v>
+        <v>28.92212748333838</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>48.24690662210195</v>
+        <v>48.24690662206875</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>56.94804122865831</v>
+        <v>56.94804122868878</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>24.56366238796828</v>
+        <v>24.56366238805957</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>50.41118011495472</v>
+        <v>50.41118011504078</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>57.74867581419436</v>
+        <v>57.74867581424949</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>26.46441980256281</v>
+        <v>26.4644198026259</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>43.33305946877054</v>
+        <v>43.33305946874871</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>49.50320340648135</v>
+        <v>49.50320340648499</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>37.18270435876148</v>
+        <v>37.18270435874716</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>51.07910873817001</v>
+        <v>51.0791087381957</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>57.28273170365001</v>
+        <v>57.28273170372641</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>55.73035207401971</v>
+        <v>55.73035207400947</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>64.56773164013133</v>
+        <v>64.56773164019226</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>68.0281990999225</v>
+        <v>68.02819909993978</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>37.36819569634996</v>
+        <v>37.3681956964118</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>56.69528857629665</v>
+        <v>56.69528857627914</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>65.39840000755349</v>
+        <v>65.39840000756941</v>
       </c>
     </row>
   </sheetData>
